--- a/ExcelEsport/FMWC_Examples/Bear Island - Harry Seiders - with Answers.xlsx
+++ b/ExcelEsport/FMWC_Examples/Bear Island - Harry Seiders - with Answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agcapital-my.sharepoint.com/personal/emils_agcapital_onmicrosoft_com/Documents/Financial Modeling World Cup/Competition Cases/Excel Esports/Road to Las Vegas/2. Bear Island/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\ExcelEsport\FMWC_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{B5D55901-FC4A-4CC8-872E-A8147A631EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AD58192-1FB4-4787-A9C8-3B75173CA886}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2688855E-76F1-4550-AC19-8C22852FCE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="7" r:id="rId1"/>
@@ -37,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="211">
   <si>
     <t>Bear Island</t>
   </si>
@@ -741,6 +763,18 @@
       </rPr>
       <t xml:space="preserve"> can be added to any of the baskets for an additional fee of $40.00</t>
     </r>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Msc</t>
+  </si>
+  <si>
+    <t>Profit</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1946,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2187,6 +2221,25 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2283,25 +2336,9 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2345,10 +2382,10 @@
       <xdr:rowOff>62344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247303</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>313395</xdr:rowOff>
+      <xdr:rowOff>324825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2389,10 +2426,10 @@
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>13524</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1939652</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>353289</xdr:rowOff>
+      <xdr:rowOff>359004</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2556,9 +2593,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2596,7 +2633,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2702,7 +2739,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2844,7 +2881,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2854,33 +2891,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1BDF3C-7CF1-4670-8742-2CB86BCAA1B5}">
   <dimension ref="A1:AV222"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N79" sqref="N79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="32.21875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="4.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="28.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" style="1" customWidth="1"/>
-    <col min="19" max="28" width="4.85546875" style="1" customWidth="1"/>
-    <col min="29" max="48" width="4.5703125" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="8.5703125" style="4"/>
+    <col min="19" max="28" width="4.88671875" style="1" customWidth="1"/>
+    <col min="29" max="48" width="4.5546875" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="8.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:48" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:48" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2908,20 +2947,20 @@
       <c r="AU1" s="4"/>
       <c r="AV1" s="4"/>
     </row>
-    <row r="2" spans="2:48" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="102" t="s">
+    <row r="2" spans="2:48" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
       <c r="N2" s="44" t="s">
         <v>1</v>
       </c>
@@ -2948,7 +2987,7 @@
       <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
     </row>
-    <row r="3" spans="2:48" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:48" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="M3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -2958,7 +2997,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="2:48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -2967,7 +3006,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="2:48" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:48" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -2976,7 +3015,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="2:48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -2985,7 +3024,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="2:48" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:48" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -2994,7 +3033,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="2:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3019,20 +3058,20 @@
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
     </row>
-    <row r="9" spans="2:48" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="123" t="s">
+    <row r="9" spans="2:48" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="125"/>
-      <c r="K9" s="132" t="s">
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="138"/>
+      <c r="K9" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="132"/>
+      <c r="L9" s="145"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
@@ -3057,16 +3096,16 @@
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
     </row>
-    <row r="10" spans="2:48" ht="14.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="114" t="s">
+    <row r="10" spans="2:48" ht="14.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="129"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
@@ -3092,19 +3131,26 @@
       <c r="AU10" s="4"/>
       <c r="AV10" s="4"/>
     </row>
-    <row r="11" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="117"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="119"/>
+    <row r="11" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="130"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="132"/>
       <c r="K11" s="90" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="91" t="s">
         <v>4</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="1">
+        <f>_xlfn.XLOOKUP(Q11,$K$12:$K$36,$L$12:$L$36)</f>
+        <v>75</v>
       </c>
       <c r="T11" s="30"/>
       <c r="V11" s="20"/>
@@ -3132,19 +3178,26 @@
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
     </row>
-    <row r="12" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="119"/>
+    <row r="12" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="130"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="132"/>
       <c r="K12" s="79" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="80">
         <v>9</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" ref="R12:R16" si="0">_xlfn.XLOOKUP(Q12,$K$12:$K$36,$L$12:$L$36)</f>
+        <v>20</v>
       </c>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
@@ -3162,19 +3215,26 @@
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
     </row>
-    <row r="13" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="117"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="119"/>
+    <row r="13" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="130"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="132"/>
       <c r="K13" s="58" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="81">
         <v>15</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
@@ -3202,19 +3262,26 @@
       <c r="AU13" s="4"/>
       <c r="AV13" s="4"/>
     </row>
-    <row r="14" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="117"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
+    <row r="14" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="130"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="132"/>
       <c r="K14" s="58" t="s">
         <v>9</v>
       </c>
       <c r="L14" s="81">
         <v>6</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
@@ -3242,19 +3309,26 @@
       <c r="AU14" s="4"/>
       <c r="AV14" s="4"/>
     </row>
-    <row r="15" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="119"/>
+    <row r="15" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="130"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="132"/>
       <c r="K15" s="58" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="81">
         <v>7</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
@@ -3275,19 +3349,26 @@
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
     </row>
-    <row r="16" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="119"/>
+    <row r="16" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="130"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="132"/>
       <c r="K16" s="58" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="81">
         <v>75</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
@@ -3308,19 +3389,23 @@
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
     </row>
-    <row r="17" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="119"/>
+    <row r="17" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="132"/>
       <c r="K17" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="81">
         <v>7</v>
+      </c>
+      <c r="R17" s="1">
+        <f>SUM(R11:R16)</f>
+        <v>101</v>
       </c>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
@@ -3341,14 +3426,14 @@
       <c r="AU17" s="4"/>
       <c r="AV17" s="4"/>
     </row>
-    <row r="18" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="120"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="122"/>
+    <row r="18" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="133"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="135"/>
       <c r="K18" s="58" t="s">
         <v>13</v>
       </c>
@@ -3375,7 +3460,7 @@
       <c r="AU18" s="4"/>
       <c r="AV18" s="4"/>
     </row>
-    <row r="19" spans="2:48" customFormat="1" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:48" customFormat="1" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3388,7 +3473,7 @@
       <c r="K19" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="134">
+      <c r="L19" s="102">
         <v>5</v>
       </c>
       <c r="N19" s="1"/>
@@ -3396,16 +3481,16 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="113" t="s">
+    <row r="20" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" s="58" t="s">
@@ -3425,7 +3510,7 @@
       <c r="AU20" s="4"/>
       <c r="AV20" s="4"/>
     </row>
-    <row r="21" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -3452,7 +3537,7 @@
       <c r="AU21" s="4"/>
       <c r="AV21" s="4"/>
     </row>
-    <row r="22" spans="2:48" ht="25.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:48" ht="25.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="61" t="s">
         <v>18</v>
       </c>
@@ -3475,6 +3560,12 @@
         <v>25</v>
       </c>
       <c r="M22" s="3"/>
+      <c r="N22" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
@@ -3485,7 +3576,7 @@
       <c r="AU22" s="4"/>
       <c r="AV22" s="4"/>
     </row>
-    <row r="23" spans="2:48" ht="25.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:48" ht="25.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B23" s="57" t="s">
         <v>22</v>
       </c>
@@ -3508,6 +3599,20 @@
         <v>7</v>
       </c>
       <c r="M23" s="3"/>
+      <c r="N23" s="1" cm="1">
+        <f t="array" ref="N23">_xlfn.LET(
+_xlpm.x, TRIM(_xlfn.TEXTSPLIT(E23,,",")),
+_xlpm.y, _xlfn.XLOOKUP(_xlpm.x,$K$12:$K$36,$L$12:$L$36),
+SUM(_xlpm.y))</f>
+        <v>17</v>
+      </c>
+      <c r="O23" s="1">
+        <f>N23+$R$17</f>
+        <v>118</v>
+      </c>
+      <c r="Q23" s="57" t="s">
+        <v>22</v>
+      </c>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
@@ -3518,7 +3623,7 @@
       <c r="AU23" s="4"/>
       <c r="AV23" s="4"/>
     </row>
-    <row r="24" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="51" t="s">
         <v>25</v>
       </c>
@@ -3541,6 +3646,20 @@
         <v>22</v>
       </c>
       <c r="M24" s="3"/>
+      <c r="N24" s="1" cm="1">
+        <f t="array" ref="N24">_xlfn.LET(
+_xlpm.x, TRIM(_xlfn.TEXTSPLIT(E24,,",")),
+_xlpm.y, _xlfn.XLOOKUP(_xlpm.x,$K$12:$K$36,$L$12:$L$36),
+SUM(_xlpm.y))</f>
+        <v>20</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" ref="O24:O28" si="1">N24+$R$17</f>
+        <v>121</v>
+      </c>
+      <c r="Q24" s="51" t="s">
+        <v>25</v>
+      </c>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
@@ -3551,7 +3670,7 @@
       <c r="AU24" s="4"/>
       <c r="AV24" s="4"/>
     </row>
-    <row r="25" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="51" t="s">
         <v>28</v>
       </c>
@@ -3574,6 +3693,20 @@
         <v>10</v>
       </c>
       <c r="M25" s="3"/>
+      <c r="N25" s="1" cm="1">
+        <f t="array" ref="N25">_xlfn.LET(
+_xlpm.x, TRIM(_xlfn.TEXTSPLIT(E25,,",")),
+_xlpm.y, _xlfn.XLOOKUP(_xlpm.x,$K$12:$K$36,$L$12:$L$36),
+SUM(_xlpm.y))</f>
+        <v>24</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="Q25" s="51" t="s">
+        <v>28</v>
+      </c>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AM25" s="3"/>
@@ -3587,7 +3720,7 @@
       <c r="AU25" s="4"/>
       <c r="AV25" s="4"/>
     </row>
-    <row r="26" spans="2:48" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:48" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="51" t="s">
         <v>31</v>
       </c>
@@ -3610,12 +3743,26 @@
         <v>1</v>
       </c>
       <c r="M26" s="3"/>
+      <c r="N26" s="1" cm="1">
+        <f t="array" ref="N26">_xlfn.LET(
+_xlpm.x, TRIM(_xlfn.TEXTSPLIT(E26,,",")),
+_xlpm.y, _xlfn.XLOOKUP(_xlpm.x,$K$12:$K$36,$L$12:$L$36),
+SUM(_xlpm.y))</f>
+        <v>31</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="Q26" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="AS26" s="4"/>
       <c r="AT26" s="4"/>
       <c r="AU26" s="4"/>
       <c r="AV26" s="4"/>
     </row>
-    <row r="27" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="51" t="s">
         <v>34</v>
       </c>
@@ -3638,12 +3785,26 @@
         <v>3</v>
       </c>
       <c r="M27" s="3"/>
+      <c r="N27" s="1" cm="1">
+        <f t="array" ref="N27">_xlfn.LET(
+_xlpm.x, TRIM(_xlfn.TEXTSPLIT(E27,,",")),
+_xlpm.y, _xlfn.XLOOKUP(_xlpm.x,$K$12:$K$36,$L$12:$L$36),
+SUM(_xlpm.y))</f>
+        <v>16</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="Q27" s="51" t="s">
+        <v>34</v>
+      </c>
       <c r="AS27" s="4"/>
       <c r="AT27" s="4"/>
       <c r="AU27" s="4"/>
       <c r="AV27" s="4"/>
     </row>
-    <row r="28" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="52" t="s">
         <v>37</v>
       </c>
@@ -3666,12 +3827,26 @@
         <v>8</v>
       </c>
       <c r="M28" s="3"/>
+      <c r="N28" s="1" cm="1">
+        <f t="array" ref="N28">_xlfn.LET(
+_xlpm.x, TRIM(_xlfn.TEXTSPLIT(E28,,",")),
+_xlpm.y, _xlfn.XLOOKUP(_xlpm.x,$K$12:$K$36,$L$12:$L$36),
+SUM(_xlpm.y))</f>
+        <v>40</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="Q28" s="52" t="s">
+        <v>37</v>
+      </c>
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
       <c r="AU28" s="4"/>
       <c r="AV28" s="4"/>
     </row>
-    <row r="29" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="45"/>
@@ -3688,21 +3863,29 @@
         <v>20</v>
       </c>
       <c r="M29" s="3"/>
+      <c r="O29" s="1">
+        <f>O23+18</f>
+        <v>136</v>
+      </c>
+      <c r="Q29" s="1" t="str">
+        <f>Q23&amp; " with wine added"</f>
+        <v>Berry Basket with wine added</v>
+      </c>
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
       <c r="AU29" s="4"/>
       <c r="AV29" s="4"/>
     </row>
-    <row r="30" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="113" t="s">
+    <row r="30" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
       <c r="K30" s="58" t="s">
@@ -3712,12 +3895,20 @@
         <v>6</v>
       </c>
       <c r="M30" s="3"/>
+      <c r="O30" s="1">
+        <f t="shared" ref="O30:O34" si="2">O24+18</f>
+        <v>139</v>
+      </c>
+      <c r="Q30" s="1" t="str">
+        <f t="shared" ref="Q30:Q34" si="3">Q24&amp; " with wine added"</f>
+        <v>Cheesy Basket with wine added</v>
+      </c>
       <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
       <c r="AU30" s="4"/>
       <c r="AV30" s="4"/>
     </row>
-    <row r="31" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="45"/>
@@ -3734,12 +3925,20 @@
         <v>4</v>
       </c>
       <c r="M31" s="3"/>
+      <c r="O31" s="1">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="Q31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Fruity Basket with wine added</v>
+      </c>
       <c r="AS31" s="4"/>
       <c r="AT31" s="4"/>
       <c r="AU31" s="4"/>
       <c r="AV31" s="4"/>
     </row>
-    <row r="32" spans="2:48" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:48" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="61" t="s">
         <v>44</v>
       </c>
@@ -3764,17 +3963,25 @@
         <v>3</v>
       </c>
       <c r="M32" s="3"/>
+      <c r="O32" s="1">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Hungry Basket with wine added</v>
+      </c>
       <c r="AS32" s="4"/>
       <c r="AT32" s="4"/>
       <c r="AU32" s="4"/>
       <c r="AV32" s="4"/>
     </row>
-    <row r="33" spans="2:48" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:48" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B33" s="57" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="49"/>
-      <c r="D33" s="135" t="s">
+      <c r="D33" s="103" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="46">
@@ -3794,12 +4001,20 @@
         <v>4</v>
       </c>
       <c r="M33" s="3"/>
+      <c r="O33" s="1">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Snack Basket with wine added</v>
+      </c>
       <c r="AS33" s="4"/>
       <c r="AT33" s="4"/>
       <c r="AU33" s="4"/>
       <c r="AV33" s="4"/>
     </row>
-    <row r="34" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="51" t="s">
         <v>52</v>
       </c>
@@ -3824,17 +4039,25 @@
         <v>6</v>
       </c>
       <c r="M34" s="3"/>
+      <c r="O34" s="1">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bucket Basket with wine added</v>
+      </c>
       <c r="AS34" s="4"/>
       <c r="AT34" s="4"/>
       <c r="AU34" s="4"/>
       <c r="AV34" s="4"/>
     </row>
-    <row r="35" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="53"/>
-      <c r="D35" s="136" t="s">
+      <c r="D35" s="104" t="s">
         <v>56</v>
       </c>
       <c r="E35" s="54">
@@ -3859,7 +4082,7 @@
       <c r="AU35" s="4"/>
       <c r="AV35" s="4"/>
     </row>
-    <row r="36" spans="2:48" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:48" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
@@ -3889,7 +4112,7 @@
       <c r="AU36" s="4"/>
       <c r="AV36" s="4"/>
     </row>
-    <row r="37" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK37" s="4"/>
       <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
@@ -3903,7 +4126,7 @@
       <c r="AU37" s="4"/>
       <c r="AV37" s="4"/>
     </row>
-    <row r="38" spans="2:48" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:48" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B38" s="32" t="s">
         <v>60</v>
       </c>
@@ -3930,7 +4153,7 @@
       <c r="AU38" s="4"/>
       <c r="AV38" s="4"/>
     </row>
-    <row r="39" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
       <c r="AM39" s="4"/>
@@ -3944,7 +4167,7 @@
       <c r="AU39" s="4"/>
       <c r="AV39" s="4"/>
     </row>
-    <row r="40" spans="2:48" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:48" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="33" t="s">
         <v>61</v>
       </c>
@@ -3963,7 +4186,7 @@
       <c r="AU40" s="4"/>
       <c r="AV40" s="4"/>
     </row>
-    <row r="41" spans="2:48" ht="14.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:48" ht="14.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="21" t="s">
         <v>62</v>
       </c>
@@ -3976,14 +4199,14 @@
       <c r="E41" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="110" t="s">
+      <c r="G41" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="112"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="125"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
@@ -4004,7 +4227,7 @@
       <c r="AU41" s="4"/>
       <c r="AV41" s="4"/>
     </row>
-    <row r="42" spans="2:48" ht="35.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:48" ht="35.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>67</v>
       </c>
@@ -4019,14 +4242,14 @@
         <f>IF(ISBLANK(E42),0,IF(E42=Answers!E42,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G42" s="126" t="s">
+      <c r="G42" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="127"/>
-      <c r="L42" s="128"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="140"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="141"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
@@ -4047,7 +4270,7 @@
       <c r="AU42" s="4"/>
       <c r="AV42" s="4"/>
     </row>
-    <row r="43" spans="2:48" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:48" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>70</v>
       </c>
@@ -4062,14 +4285,14 @@
         <f>IF(ISBLANK(E43),0,IF(E43=Answers!E43,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G43" s="129" t="s">
+      <c r="G43" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="130"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="131"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="143"/>
+      <c r="K43" s="143"/>
+      <c r="L43" s="144"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
@@ -4090,7 +4313,7 @@
       <c r="AU43" s="4"/>
       <c r="AV43" s="4"/>
     </row>
-    <row r="44" spans="2:48" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:48" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="14" t="s">
         <v>72</v>
       </c>
@@ -4105,14 +4328,14 @@
         <f>IF(ISBLANK(E44),0,IF(E44=Answers!E44,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G44" s="107" t="s">
+      <c r="G44" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="109"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="122"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
@@ -4133,7 +4356,7 @@
       <c r="AU44" s="4"/>
       <c r="AV44" s="4"/>
     </row>
-    <row r="45" spans="2:48" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:48" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="AK45" s="4"/>
       <c r="AL45" s="4"/>
       <c r="AM45" s="4"/>
@@ -4147,7 +4370,7 @@
       <c r="AU45" s="4"/>
       <c r="AV45" s="4"/>
     </row>
-    <row r="46" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
@@ -4161,7 +4384,7 @@
       <c r="AU46" s="4"/>
       <c r="AV46" s="4"/>
     </row>
-    <row r="47" spans="2:48" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:48" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B47" s="40" t="s">
         <v>73</v>
       </c>
@@ -4188,7 +4411,7 @@
       <c r="AU47" s="4"/>
       <c r="AV47" s="4"/>
     </row>
-    <row r="48" spans="2:48" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:48" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -4220,7 +4443,7 @@
       <c r="AU48" s="4"/>
       <c r="AV48" s="4"/>
     </row>
-    <row r="49" spans="2:48" ht="24.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:48" ht="24.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="23" t="s">
         <v>74</v>
       </c>
@@ -4243,10 +4466,10 @@
       <c r="AU49" s="4"/>
       <c r="AV49" s="4"/>
     </row>
-    <row r="50" spans="2:48" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K50" s="104">
+    <row r="50" spans="2:48" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="K50" s="117">
         <f>SUMPRODUCT(D:D,F:F)</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AK50" s="4"/>
       <c r="AL50" s="4"/>
@@ -4261,11 +4484,11 @@
       <c r="AU50" s="4"/>
       <c r="AV50" s="4"/>
     </row>
-    <row r="51" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K51" s="105"/>
+      <c r="K51" s="118"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="AK51" s="4"/>
@@ -4281,10 +4504,10 @@
       <c r="AU51" s="4"/>
       <c r="AV51" s="4"/>
     </row>
-    <row r="52" spans="2:48" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:48" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="22"/>
       <c r="G52" s="26"/>
-      <c r="K52" s="105"/>
+      <c r="K52" s="118"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="AK52" s="4"/>
@@ -4300,7 +4523,7 @@
       <c r="AU52" s="4"/>
       <c r="AV52" s="4"/>
     </row>
-    <row r="53" spans="2:48" ht="25.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:48" ht="25.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="21" t="s">
         <v>62</v>
       </c>
@@ -4319,7 +4542,7 @@
       <c r="H53" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="K53" s="106"/>
+      <c r="K53" s="119"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="AK53" s="4"/>
@@ -4335,7 +4558,7 @@
       <c r="AU53" s="4"/>
       <c r="AV53" s="4"/>
     </row>
-    <row r="54" spans="2:48" ht="25.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:48" ht="25.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -4355,7 +4578,7 @@
       <c r="AU54" s="4"/>
       <c r="AV54" s="4"/>
     </row>
-    <row r="55" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>80</v>
       </c>
@@ -4378,7 +4601,16 @@
       <c r="H55" s="25">
         <v>3</v>
       </c>
-      <c r="P55" s="4"/>
+      <c r="I55" s="1">
+        <f>3*_xlfn.XLOOKUP(G55,$N$56:$N$66,$O$56:$O$66)</f>
+        <v>600</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="Q55" s="4"/>
       <c r="AK55" s="4"/>
       <c r="AL55" s="4"/>
@@ -4393,12 +4625,17 @@
       <c r="AU55" s="4"/>
       <c r="AV55" s="4"/>
     </row>
-    <row r="56" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="P56" s="4"/>
+      <c r="N56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O56" s="4">
+        <v>140</v>
+      </c>
       <c r="Q56" s="4"/>
       <c r="AK56" s="4"/>
       <c r="AL56" s="4"/>
@@ -4413,7 +4650,7 @@
       <c r="AU56" s="4"/>
       <c r="AV56" s="4"/>
     </row>
-    <row r="57" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B57" s="17">
         <v>1</v>
       </c>
@@ -4423,18 +4660,33 @@
       <c r="D57" s="18">
         <v>6</v>
       </c>
-      <c r="E57" s="19"/>
+      <c r="E57" s="19">
+        <v>1120</v>
+      </c>
       <c r="F57" s="37">
         <f>IF(ISBLANK(E57),0,IF(E57=Answers!E57,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="147" t="s">
         <v>22</v>
       </c>
       <c r="H57" s="25">
         <v>8</v>
       </c>
-      <c r="P57" s="4"/>
+      <c r="I57" s="1">
+        <f>H57*_xlfn.XLOOKUP(G57,$N$56:$N$66,$O$56:$O$66)</f>
+        <v>1120</v>
+      </c>
+      <c r="K57" s="1" t="str" cm="1">
+        <f t="array" ref="K57:K66">_xlfn.UNIQUE(G55:G66)</f>
+        <v>Hungry Basket with Wine Added</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O57" s="4">
+        <v>150</v>
+      </c>
       <c r="Q57" s="4"/>
       <c r="AK57" s="4"/>
       <c r="AL57" s="4"/>
@@ -4449,7 +4701,7 @@
       <c r="AU57" s="4"/>
       <c r="AV57" s="4"/>
     </row>
-    <row r="58" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B58" s="17">
         <f>B57+1</f>
         <v>2</v>
@@ -4460,18 +4712,32 @@
       <c r="D58" s="18">
         <v>6</v>
       </c>
-      <c r="E58" s="19"/>
+      <c r="E58" s="19">
+        <v>480</v>
+      </c>
       <c r="F58" s="37">
         <f>IF(ISBLANK(E58),0,IF(E58=Answers!E58,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="147" t="s">
         <v>31</v>
       </c>
       <c r="H58" s="25">
         <v>3</v>
       </c>
-      <c r="P58" s="4"/>
+      <c r="I58" s="1">
+        <f t="shared" ref="I58:I66" si="4">H58*_xlfn.XLOOKUP(G58,$N$56:$N$66,$O$56:$O$66)</f>
+        <v>480</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O58" s="4">
+        <v>155</v>
+      </c>
       <c r="Q58" s="4"/>
       <c r="AK58" s="4"/>
       <c r="AL58" s="4"/>
@@ -4486,7 +4752,7 @@
       <c r="AU58" s="4"/>
       <c r="AV58" s="4"/>
     </row>
-    <row r="59" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B59" s="17">
         <f>B58+1</f>
         <v>3</v>
@@ -4497,18 +4763,32 @@
       <c r="D59" s="18">
         <v>6</v>
       </c>
-      <c r="E59" s="19"/>
+      <c r="E59" s="19">
+        <v>2030</v>
+      </c>
       <c r="F59" s="37">
         <f>IF(ISBLANK(E59),0,IF(E59=Answers!E59,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="147" t="s">
         <v>34</v>
       </c>
       <c r="H59" s="25">
         <v>14</v>
       </c>
-      <c r="P59" s="4"/>
+      <c r="I59" s="1">
+        <f t="shared" si="4"/>
+        <v>2030</v>
+      </c>
+      <c r="K59" s="1" t="str">
+        <v>Berry Basket</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59" s="4">
+        <v>160</v>
+      </c>
       <c r="Q59" s="4"/>
       <c r="AK59" s="4"/>
       <c r="AL59" s="4"/>
@@ -4523,9 +4803,9 @@
       <c r="AU59" s="4"/>
       <c r="AV59" s="4"/>
     </row>
-    <row r="60" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B60" s="17">
-        <f t="shared" ref="B60:B122" si="0">B59+1</f>
+        <f t="shared" ref="B60:B122" si="5">B59+1</f>
         <v>4</v>
       </c>
       <c r="C60" s="17">
@@ -4534,18 +4814,32 @@
       <c r="D60" s="18">
         <v>6</v>
       </c>
-      <c r="E60" s="19"/>
+      <c r="E60" s="19">
+        <v>1260</v>
+      </c>
       <c r="F60" s="37">
         <f>IF(ISBLANK(E60),0,IF(E60=Answers!E60,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="147" t="s">
         <v>82</v>
       </c>
       <c r="H60" s="25">
         <v>6</v>
       </c>
-      <c r="P60" s="4"/>
+      <c r="I60" s="1">
+        <f t="shared" si="4"/>
+        <v>1260</v>
+      </c>
+      <c r="K60" s="1" t="str">
+        <v>Hungry Basket</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O60" s="4">
+        <v>145</v>
+      </c>
       <c r="Q60" s="4"/>
       <c r="AK60" s="4"/>
       <c r="AL60" s="4"/>
@@ -4560,9 +4854,9 @@
       <c r="AU60" s="4"/>
       <c r="AV60" s="4"/>
     </row>
-    <row r="61" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B61" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C61" s="17">
@@ -4571,18 +4865,32 @@
       <c r="D61" s="18">
         <v>6</v>
       </c>
-      <c r="E61" s="19"/>
+      <c r="E61" s="19">
+        <v>1085</v>
+      </c>
       <c r="F61" s="37">
         <f>IF(ISBLANK(E61),0,IF(E61=Answers!E61,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="147" t="s">
         <v>28</v>
       </c>
       <c r="H61" s="25">
         <v>7</v>
       </c>
-      <c r="P61" s="4"/>
+      <c r="I61" s="1">
+        <f t="shared" si="4"/>
+        <v>1085</v>
+      </c>
+      <c r="K61" s="1" t="str">
+        <v>Snack Basket</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O61" s="4">
+        <v>170</v>
+      </c>
       <c r="Q61" s="4"/>
       <c r="AK61" s="4"/>
       <c r="AL61" s="4"/>
@@ -4597,9 +4905,9 @@
       <c r="AU61" s="4"/>
       <c r="AV61" s="4"/>
     </row>
-    <row r="62" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B62" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C62" s="17">
@@ -4608,18 +4916,33 @@
       <c r="D62" s="18">
         <v>6</v>
       </c>
-      <c r="E62" s="19"/>
+      <c r="E62" s="19">
+        <v>1520</v>
+      </c>
       <c r="F62" s="37">
         <f>IF(ISBLANK(E62),0,IF(E62=Answers!E62,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="147" t="s">
         <v>83</v>
       </c>
       <c r="H62" s="25">
         <v>8</v>
       </c>
-      <c r="P62" s="4"/>
+      <c r="I62" s="1">
+        <f t="shared" si="4"/>
+        <v>1520</v>
+      </c>
+      <c r="K62" s="1" t="str">
+        <v>Bucket Basket with Wine Added</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O62" s="4">
+        <f>150+(40)</f>
+        <v>190</v>
+      </c>
       <c r="Q62" s="4"/>
       <c r="AK62" s="4"/>
       <c r="AL62" s="4"/>
@@ -4634,9 +4957,9 @@
       <c r="AU62" s="4"/>
       <c r="AV62" s="4"/>
     </row>
-    <row r="63" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B63" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C63" s="17">
@@ -4645,16 +4968,32 @@
       <c r="D63" s="18">
         <v>6</v>
       </c>
-      <c r="E63" s="19"/>
+      <c r="E63" s="19">
+        <v>1015</v>
+      </c>
       <c r="F63" s="37">
         <f>IF(ISBLANK(E63),0,IF(E63=Answers!E63,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="147" t="s">
         <v>34</v>
       </c>
       <c r="H63" s="25">
         <v>7</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="4"/>
+        <v>1015</v>
+      </c>
+      <c r="K63" s="1" t="str">
+        <v>Fruity Basket</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O63" s="4">
+        <f>155+(40)</f>
+        <v>195</v>
       </c>
       <c r="AK63" s="4"/>
       <c r="AL63" s="4"/>
@@ -4669,9 +5008,9 @@
       <c r="AU63" s="4"/>
       <c r="AV63" s="4"/>
     </row>
-    <row r="64" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B64" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C64" s="17">
@@ -4680,16 +5019,32 @@
       <c r="D64" s="18">
         <v>6</v>
       </c>
-      <c r="E64" s="19"/>
+      <c r="E64" s="19">
+        <v>1530</v>
+      </c>
       <c r="F64" s="37">
         <f>IF(ISBLANK(E64),0,IF(E64=Answers!E64,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="147" t="s">
         <v>37</v>
       </c>
       <c r="H64" s="25">
         <v>9</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="4"/>
+        <v>1530</v>
+      </c>
+      <c r="K64" s="1" t="str">
+        <v>Cheesy Basket with Wine Added</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O64" s="4">
+        <f>160+(40)</f>
+        <v>200</v>
       </c>
       <c r="AK64" s="4"/>
       <c r="AL64" s="4"/>
@@ -4704,9 +5059,9 @@
       <c r="AU64" s="4"/>
       <c r="AV64" s="4"/>
     </row>
-    <row r="65" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B65" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C65" s="17">
@@ -4715,16 +5070,32 @@
       <c r="D65" s="18">
         <v>6</v>
       </c>
-      <c r="E65" s="19"/>
+      <c r="E65" s="19">
+        <v>1755</v>
+      </c>
       <c r="F65" s="37">
         <f>IF(ISBLANK(E65),0,IF(E65=Answers!E65,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="147" t="s">
         <v>84</v>
       </c>
       <c r="H65" s="25">
         <v>9</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="4"/>
+        <v>1755</v>
+      </c>
+      <c r="K65" s="1" t="str">
+        <v>Bucket Basket</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O65" s="4">
+        <f>145+(40)</f>
+        <v>185</v>
       </c>
       <c r="AK65" s="4"/>
       <c r="AL65" s="4"/>
@@ -4739,9 +5110,9 @@
       <c r="AU65" s="4"/>
       <c r="AV65" s="4"/>
     </row>
-    <row r="66" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B66" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C66" s="17">
@@ -4750,16 +5121,32 @@
       <c r="D66" s="18">
         <v>6</v>
       </c>
-      <c r="E66" s="19"/>
+      <c r="E66" s="19">
+        <v>1330</v>
+      </c>
       <c r="F66" s="37">
         <f>IF(ISBLANK(E66),0,IF(E66=Answers!E66,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="147" t="s">
         <v>83</v>
       </c>
       <c r="H66" s="25">
         <v>7</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" si="4"/>
+        <v>1330</v>
+      </c>
+      <c r="K66" s="1" t="str">
+        <v>Fruity Basket with Wine Added</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O66" s="4">
+        <f>170+(40)</f>
+        <v>210</v>
       </c>
       <c r="AK66" s="4"/>
       <c r="AL66" s="4"/>
@@ -4774,11 +5161,19 @@
       <c r="AU66" s="4"/>
       <c r="AV66" s="4"/>
     </row>
-    <row r="67" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
+      <c r="N67" s="1" t="str">
+        <f>N56&amp;" with Wine Added"</f>
+        <v>Berry Basket with Wine Added</v>
+      </c>
+      <c r="O67" s="1">
+        <f>O56+40</f>
+        <v>180</v>
+      </c>
       <c r="AK67" s="4"/>
       <c r="AL67" s="4"/>
       <c r="AM67" s="4"/>
@@ -4792,7 +5187,7 @@
       <c r="AU67" s="4"/>
       <c r="AV67" s="4"/>
     </row>
-    <row r="68" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B68" s="17" t="s">
         <v>85</v>
       </c>
@@ -4804,11 +5199,11 @@
       </c>
       <c r="E68" s="19">
         <f>SUM(E57:E66)</f>
-        <v>0</v>
+        <v>13125</v>
       </c>
       <c r="F68" s="37">
         <f>IF(ISBLANK(E68),0,IF(E68=Answers!E68,1,-1))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK68" s="4"/>
       <c r="AL68" s="4"/>
@@ -4823,7 +5218,7 @@
       <c r="AU68" s="4"/>
       <c r="AV68" s="4"/>
     </row>
-    <row r="69" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -4841,7 +5236,7 @@
       <c r="AU69" s="4"/>
       <c r="AV69" s="4"/>
     </row>
-    <row r="70" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -4859,7 +5254,7 @@
       <c r="AU70" s="4"/>
       <c r="AV70" s="4"/>
     </row>
-    <row r="71" spans="2:48" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:48" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="23" t="s">
         <v>86</v>
       </c>
@@ -4881,7 +5276,7 @@
       <c r="AU71" s="4"/>
       <c r="AV71" s="4"/>
     </row>
-    <row r="72" spans="2:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B72" s="22"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -4899,7 +5294,7 @@
       <c r="AU72" s="4"/>
       <c r="AV72" s="4"/>
     </row>
-    <row r="73" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B73" s="22" t="s">
         <v>88</v>
       </c>
@@ -4919,7 +5314,7 @@
       <c r="AU73" s="4"/>
       <c r="AV73" s="4"/>
     </row>
-    <row r="74" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B74" s="22" t="s">
         <v>89</v>
       </c>
@@ -4939,7 +5334,7 @@
       <c r="AU74" s="4"/>
       <c r="AV74" s="4"/>
     </row>
-    <row r="75" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B75" s="22" t="s">
         <v>90</v>
       </c>
@@ -4959,7 +5354,7 @@
       <c r="AU75" s="4"/>
       <c r="AV75" s="4"/>
     </row>
-    <row r="76" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
       <c r="D76" s="1"/>
@@ -4977,7 +5372,7 @@
       <c r="AU76" s="4"/>
       <c r="AV76" s="4"/>
     </row>
-    <row r="77" spans="2:48" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:48" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="21" t="s">
         <v>62</v>
       </c>
@@ -4995,6 +5390,15 @@
       </c>
       <c r="H77" s="61" t="s">
         <v>79</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="AJ77" s="4"/>
       <c r="AK77" s="4"/>
@@ -5010,7 +5414,7 @@
       <c r="AU77" s="4"/>
       <c r="AV77" s="4"/>
     </row>
-    <row r="78" spans="2:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -5029,7 +5433,7 @@
       <c r="AU78" s="4"/>
       <c r="AV78" s="4"/>
     </row>
-    <row r="79" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="17" t="s">
         <v>91</v>
       </c>
@@ -5051,6 +5455,18 @@
       </c>
       <c r="H79" s="25">
         <v>3</v>
+      </c>
+      <c r="J79" s="1">
+        <f>H79*_xlfn.XLOOKUP(G79,$N$56:$N$66,$O$56:$O$66)</f>
+        <v>600</v>
+      </c>
+      <c r="K79" s="1">
+        <f>H79*_xlfn.XLOOKUP(G79,$Q$23:$Q$34,$O$23:$O$34)</f>
+        <v>450</v>
+      </c>
+      <c r="L79" s="1">
+        <f>J79-K79</f>
+        <v>150</v>
       </c>
       <c r="AJ79" s="4"/>
       <c r="AK79" s="4"/>
@@ -5066,11 +5482,23 @@
       <c r="AU79" s="4"/>
       <c r="AV79" s="4"/>
     </row>
-    <row r="80" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
+      <c r="J80" s="1" t="e">
+        <f t="shared" ref="J80:J100" si="6">H80*_xlfn.XLOOKUP(G80,$N$56:$N$66,$O$56:$O$66)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K80" s="1" t="e">
+        <f t="shared" ref="K80:K100" si="7">H80*_xlfn.XLOOKUP(G80,$Q$23:$Q$34,$O$23:$O$34)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L80" s="1" t="e">
+        <f t="shared" ref="L80:L100" si="8">J80-K80</f>
+        <v>#N/A</v>
+      </c>
       <c r="AJ80" s="4"/>
       <c r="AK80" s="4"/>
       <c r="AL80" s="4"/>
@@ -5085,7 +5513,7 @@
       <c r="AU80" s="4"/>
       <c r="AV80" s="4"/>
     </row>
-    <row r="81" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="17">
         <v>11</v>
       </c>
@@ -5095,16 +5523,30 @@
       <c r="D81" s="18">
         <v>8</v>
       </c>
-      <c r="E81" s="19"/>
+      <c r="E81" s="19">
+        <v>176</v>
+      </c>
       <c r="F81" s="37">
         <f>IF(ISBLANK(E81),0,IF(E81=Answers!E81,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="25" t="s">
         <v>22</v>
       </c>
       <c r="H81" s="25">
         <v>8</v>
+      </c>
+      <c r="J81" s="1">
+        <f>H81*_xlfn.XLOOKUP(G81,$N$56:$N$67,$O$56:$O$67)</f>
+        <v>1120</v>
+      </c>
+      <c r="K81" s="1">
+        <f t="shared" si="7"/>
+        <v>944</v>
+      </c>
+      <c r="L81" s="1">
+        <f t="shared" si="8"/>
+        <v>176</v>
       </c>
       <c r="AJ81" s="4"/>
       <c r="AK81" s="4"/>
@@ -5120,9 +5562,9 @@
       <c r="AU81" s="4"/>
       <c r="AV81" s="4"/>
     </row>
-    <row r="82" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="C82" s="17">
@@ -5131,16 +5573,30 @@
       <c r="D82" s="18">
         <v>8</v>
       </c>
-      <c r="E82" s="19"/>
+      <c r="E82" s="19">
+        <v>84</v>
+      </c>
       <c r="F82" s="37">
         <f>IF(ISBLANK(E82),0,IF(E82=Answers!E82,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="25" t="s">
         <v>31</v>
       </c>
       <c r="H82" s="25">
         <v>3</v>
+      </c>
+      <c r="J82" s="1">
+        <f t="shared" ref="J82:J100" si="9">H82*_xlfn.XLOOKUP(G82,$N$56:$N$67,$O$56:$O$67)</f>
+        <v>480</v>
+      </c>
+      <c r="K82" s="1">
+        <f t="shared" si="7"/>
+        <v>396</v>
+      </c>
+      <c r="L82" s="1">
+        <f t="shared" si="8"/>
+        <v>84</v>
       </c>
       <c r="AJ82" s="4"/>
       <c r="AK82" s="4"/>
@@ -5156,9 +5612,9 @@
       <c r="AU82" s="4"/>
       <c r="AV82" s="4"/>
     </row>
-    <row r="83" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="C83" s="17">
@@ -5167,16 +5623,30 @@
       <c r="D83" s="18">
         <v>8</v>
       </c>
-      <c r="E83" s="19"/>
+      <c r="E83" s="19">
+        <v>392</v>
+      </c>
       <c r="F83" s="37">
         <f>IF(ISBLANK(E83),0,IF(E83=Answers!E83,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="25" t="s">
         <v>34</v>
       </c>
       <c r="H83" s="25">
         <v>14</v>
+      </c>
+      <c r="J83" s="1">
+        <f t="shared" si="9"/>
+        <v>2030</v>
+      </c>
+      <c r="K83" s="1">
+        <f t="shared" si="7"/>
+        <v>1638</v>
+      </c>
+      <c r="L83" s="1">
+        <f t="shared" si="8"/>
+        <v>392</v>
       </c>
       <c r="AJ83" s="4"/>
       <c r="AK83" s="4"/>
@@ -5192,9 +5662,9 @@
       <c r="AU83" s="4"/>
       <c r="AV83" s="4"/>
     </row>
-    <row r="84" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="C84" s="17">
@@ -5203,16 +5673,30 @@
       <c r="D84" s="18">
         <v>8</v>
       </c>
-      <c r="E84" s="19"/>
+      <c r="E84" s="19">
+        <v>306</v>
+      </c>
       <c r="F84" s="37">
         <f>IF(ISBLANK(E84),0,IF(E84=Answers!E84,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="25" t="s">
         <v>82</v>
       </c>
       <c r="H84" s="25">
         <v>6</v>
+      </c>
+      <c r="J84" s="1">
+        <f t="shared" si="9"/>
+        <v>1260</v>
+      </c>
+      <c r="K84" s="1">
+        <f t="shared" si="7"/>
+        <v>954</v>
+      </c>
+      <c r="L84" s="1">
+        <f t="shared" si="8"/>
+        <v>306</v>
       </c>
       <c r="AJ84" s="4"/>
       <c r="AK84" s="4"/>
@@ -5228,9 +5712,9 @@
       <c r="AU84" s="4"/>
       <c r="AV84" s="4"/>
     </row>
-    <row r="85" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="C85" s="17">
@@ -5239,16 +5723,30 @@
       <c r="D85" s="18">
         <v>8</v>
       </c>
-      <c r="E85" s="19"/>
+      <c r="E85" s="19">
+        <v>210</v>
+      </c>
       <c r="F85" s="37">
         <f>IF(ISBLANK(E85),0,IF(E85=Answers!E85,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="25" t="s">
         <v>28</v>
       </c>
       <c r="H85" s="25">
         <v>7</v>
+      </c>
+      <c r="J85" s="1">
+        <f t="shared" si="9"/>
+        <v>1085</v>
+      </c>
+      <c r="K85" s="1">
+        <f t="shared" si="7"/>
+        <v>875</v>
+      </c>
+      <c r="L85" s="1">
+        <f t="shared" si="8"/>
+        <v>210</v>
       </c>
       <c r="AJ85" s="4"/>
       <c r="AK85" s="4"/>
@@ -5264,9 +5762,9 @@
       <c r="AU85" s="4"/>
       <c r="AV85" s="4"/>
     </row>
-    <row r="86" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="C86" s="17">
@@ -5275,16 +5773,30 @@
       <c r="D86" s="18">
         <v>8</v>
       </c>
-      <c r="E86" s="19"/>
+      <c r="E86" s="19">
+        <v>408</v>
+      </c>
       <c r="F86" s="37">
         <f>IF(ISBLANK(E86),0,IF(E86=Answers!E86,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="25" t="s">
         <v>83</v>
       </c>
       <c r="H86" s="25">
         <v>8</v>
+      </c>
+      <c r="J86" s="1">
+        <f t="shared" si="9"/>
+        <v>1520</v>
+      </c>
+      <c r="K86" s="1">
+        <f t="shared" si="7"/>
+        <v>1112</v>
+      </c>
+      <c r="L86" s="1">
+        <f t="shared" si="8"/>
+        <v>408</v>
       </c>
       <c r="AJ86" s="4"/>
       <c r="AK86" s="4"/>
@@ -5300,9 +5812,9 @@
       <c r="AU86" s="4"/>
       <c r="AV86" s="4"/>
     </row>
-    <row r="87" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="C87" s="17">
@@ -5311,16 +5823,30 @@
       <c r="D87" s="18">
         <v>8</v>
       </c>
-      <c r="E87" s="19"/>
+      <c r="E87" s="19">
+        <v>196</v>
+      </c>
       <c r="F87" s="37">
         <f>IF(ISBLANK(E87),0,IF(E87=Answers!E87,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="25" t="s">
         <v>34</v>
       </c>
       <c r="H87" s="25">
         <v>7</v>
+      </c>
+      <c r="J87" s="1">
+        <f t="shared" si="9"/>
+        <v>1015</v>
+      </c>
+      <c r="K87" s="1">
+        <f t="shared" si="7"/>
+        <v>819</v>
+      </c>
+      <c r="L87" s="1">
+        <f t="shared" si="8"/>
+        <v>196</v>
       </c>
       <c r="AJ87" s="4"/>
       <c r="AK87" s="4"/>
@@ -5336,9 +5862,9 @@
       <c r="AU87" s="4"/>
       <c r="AV87" s="4"/>
     </row>
-    <row r="88" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="C88" s="17">
@@ -5347,16 +5873,30 @@
       <c r="D88" s="18">
         <v>8</v>
       </c>
-      <c r="E88" s="19"/>
+      <c r="E88" s="19">
+        <v>261</v>
+      </c>
       <c r="F88" s="37">
         <f>IF(ISBLANK(E88),0,IF(E88=Answers!E88,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="25" t="s">
         <v>37</v>
       </c>
       <c r="H88" s="25">
         <v>9</v>
+      </c>
+      <c r="J88" s="1">
+        <f t="shared" si="9"/>
+        <v>1530</v>
+      </c>
+      <c r="K88" s="1">
+        <f t="shared" si="7"/>
+        <v>1269</v>
+      </c>
+      <c r="L88" s="1">
+        <f t="shared" si="8"/>
+        <v>261</v>
       </c>
       <c r="AJ88" s="4"/>
       <c r="AK88" s="4"/>
@@ -5372,9 +5912,9 @@
       <c r="AU88" s="4"/>
       <c r="AV88" s="4"/>
     </row>
-    <row r="89" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="C89" s="17">
@@ -5383,16 +5923,30 @@
       <c r="D89" s="18">
         <v>8</v>
       </c>
-      <c r="E89" s="19"/>
+      <c r="E89" s="19">
+        <v>468</v>
+      </c>
       <c r="F89" s="37">
         <f>IF(ISBLANK(E89),0,IF(E89=Answers!E89,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H89" s="25">
         <v>9</v>
+      </c>
+      <c r="J89" s="1">
+        <f t="shared" si="9"/>
+        <v>1755</v>
+      </c>
+      <c r="K89" s="1">
+        <f t="shared" si="7"/>
+        <v>1287</v>
+      </c>
+      <c r="L89" s="1">
+        <f t="shared" si="8"/>
+        <v>468</v>
       </c>
       <c r="AJ89" s="4"/>
       <c r="AK89" s="4"/>
@@ -5408,9 +5962,9 @@
       <c r="AU89" s="4"/>
       <c r="AV89" s="4"/>
     </row>
-    <row r="90" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="C90" s="17">
@@ -5419,16 +5973,30 @@
       <c r="D90" s="18">
         <v>8</v>
       </c>
-      <c r="E90" s="19"/>
+      <c r="E90" s="19">
+        <v>357</v>
+      </c>
       <c r="F90" s="37">
         <f>IF(ISBLANK(E90),0,IF(E90=Answers!E90,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="25" t="s">
         <v>83</v>
       </c>
       <c r="H90" s="25">
         <v>7</v>
+      </c>
+      <c r="J90" s="1">
+        <f t="shared" si="9"/>
+        <v>1330</v>
+      </c>
+      <c r="K90" s="1">
+        <f t="shared" si="7"/>
+        <v>973</v>
+      </c>
+      <c r="L90" s="1">
+        <f t="shared" si="8"/>
+        <v>357</v>
       </c>
       <c r="AJ90" s="4"/>
       <c r="AK90" s="4"/>
@@ -5444,9 +6012,9 @@
       <c r="AU90" s="4"/>
       <c r="AV90" s="4"/>
     </row>
-    <row r="91" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="C91" s="17">
@@ -5455,16 +6023,30 @@
       <c r="D91" s="18">
         <v>8</v>
       </c>
-      <c r="E91" s="19"/>
+      <c r="E91" s="19">
+        <v>484</v>
+      </c>
       <c r="F91" s="37">
         <f>IF(ISBLANK(E91),0,IF(E91=Answers!E91,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="25" t="s">
         <v>92</v>
       </c>
       <c r="H91" s="25">
         <v>11</v>
+      </c>
+      <c r="J91" s="1">
+        <f t="shared" si="9"/>
+        <v>1980</v>
+      </c>
+      <c r="K91" s="1">
+        <f t="shared" si="7"/>
+        <v>1496</v>
+      </c>
+      <c r="L91" s="1">
+        <f t="shared" si="8"/>
+        <v>484</v>
       </c>
       <c r="AJ91" s="4"/>
       <c r="AK91" s="4"/>
@@ -5480,9 +6062,9 @@
       <c r="AU91" s="4"/>
       <c r="AV91" s="4"/>
     </row>
-    <row r="92" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="C92" s="17">
@@ -5491,16 +6073,30 @@
       <c r="D92" s="18">
         <v>8</v>
       </c>
-      <c r="E92" s="19"/>
+      <c r="E92" s="19">
+        <v>800</v>
+      </c>
       <c r="F92" s="37">
         <f>IF(ISBLANK(E92),0,IF(E92=Answers!E92,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H92" s="25">
         <v>16</v>
+      </c>
+      <c r="J92" s="1">
+        <f t="shared" si="9"/>
+        <v>3200</v>
+      </c>
+      <c r="K92" s="1">
+        <f t="shared" si="7"/>
+        <v>2400</v>
+      </c>
+      <c r="L92" s="1">
+        <f t="shared" si="8"/>
+        <v>800</v>
       </c>
       <c r="AJ92" s="4"/>
       <c r="AK92" s="4"/>
@@ -5516,9 +6112,9 @@
       <c r="AU92" s="4"/>
       <c r="AV92" s="4"/>
     </row>
-    <row r="93" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="C93" s="17">
@@ -5527,16 +6123,30 @@
       <c r="D93" s="18">
         <v>8</v>
       </c>
-      <c r="E93" s="19"/>
+      <c r="E93" s="19">
+        <v>700</v>
+      </c>
       <c r="F93" s="37">
         <f>IF(ISBLANK(E93),0,IF(E93=Answers!E93,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="25" t="s">
         <v>93</v>
       </c>
       <c r="H93" s="25">
         <v>14</v>
+      </c>
+      <c r="J93" s="1">
+        <f t="shared" si="9"/>
+        <v>2590</v>
+      </c>
+      <c r="K93" s="1">
+        <f t="shared" si="7"/>
+        <v>1890</v>
+      </c>
+      <c r="L93" s="1">
+        <f t="shared" si="8"/>
+        <v>700</v>
       </c>
       <c r="AJ93" s="4"/>
       <c r="AK93" s="4"/>
@@ -5552,9 +6162,9 @@
       <c r="AU93" s="4"/>
       <c r="AV93" s="4"/>
     </row>
-    <row r="94" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="C94" s="17">
@@ -5563,16 +6173,30 @@
       <c r="D94" s="18">
         <v>8</v>
       </c>
-      <c r="E94" s="19"/>
+      <c r="E94" s="19">
+        <v>104</v>
+      </c>
       <c r="F94" s="37">
         <f>IF(ISBLANK(E94),0,IF(E94=Answers!E94,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H94" s="25">
         <v>2</v>
+      </c>
+      <c r="J94" s="1">
+        <f t="shared" si="9"/>
+        <v>390</v>
+      </c>
+      <c r="K94" s="1">
+        <f t="shared" si="7"/>
+        <v>286</v>
+      </c>
+      <c r="L94" s="1">
+        <f t="shared" si="8"/>
+        <v>104</v>
       </c>
       <c r="AJ94" s="4"/>
       <c r="AK94" s="4"/>
@@ -5588,9 +6212,9 @@
       <c r="AU94" s="4"/>
       <c r="AV94" s="4"/>
     </row>
-    <row r="95" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="C95" s="17">
@@ -5599,16 +6223,30 @@
       <c r="D95" s="18">
         <v>8</v>
       </c>
-      <c r="E95" s="19"/>
+      <c r="E95" s="19">
+        <v>250</v>
+      </c>
       <c r="F95" s="37">
         <f>IF(ISBLANK(E95),0,IF(E95=Answers!E95,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="25" t="s">
         <v>93</v>
       </c>
       <c r="H95" s="25">
         <v>5</v>
+      </c>
+      <c r="J95" s="1">
+        <f t="shared" si="9"/>
+        <v>925</v>
+      </c>
+      <c r="K95" s="1">
+        <f t="shared" si="7"/>
+        <v>675</v>
+      </c>
+      <c r="L95" s="1">
+        <f t="shared" si="8"/>
+        <v>250</v>
       </c>
       <c r="AJ95" s="4"/>
       <c r="AK95" s="4"/>
@@ -5624,9 +6262,9 @@
       <c r="AU95" s="4"/>
       <c r="AV95" s="4"/>
     </row>
-    <row r="96" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="C96" s="17">
@@ -5635,16 +6273,30 @@
       <c r="D96" s="18">
         <v>8</v>
       </c>
-      <c r="E96" s="19"/>
+      <c r="E96" s="19">
+        <v>252</v>
+      </c>
       <c r="F96" s="37">
         <f>IF(ISBLANK(E96),0,IF(E96=Answers!E96,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="25" t="s">
         <v>31</v>
       </c>
       <c r="H96" s="25">
         <v>9</v>
+      </c>
+      <c r="J96" s="1">
+        <f t="shared" si="9"/>
+        <v>1440</v>
+      </c>
+      <c r="K96" s="1">
+        <f t="shared" si="7"/>
+        <v>1188</v>
+      </c>
+      <c r="L96" s="1">
+        <f t="shared" si="8"/>
+        <v>252</v>
       </c>
       <c r="AJ96" s="4"/>
       <c r="AK96" s="4"/>
@@ -5660,9 +6312,9 @@
       <c r="AU96" s="4"/>
       <c r="AV96" s="4"/>
     </row>
-    <row r="97" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="C97" s="17">
@@ -5671,16 +6323,30 @@
       <c r="D97" s="18">
         <v>8</v>
       </c>
-      <c r="E97" s="19"/>
+      <c r="E97" s="19">
+        <v>364</v>
+      </c>
       <c r="F97" s="37">
         <f>IF(ISBLANK(E97),0,IF(E97=Answers!E97,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="25" t="s">
         <v>34</v>
       </c>
       <c r="H97" s="25">
         <v>13</v>
+      </c>
+      <c r="J97" s="1">
+        <f t="shared" si="9"/>
+        <v>1885</v>
+      </c>
+      <c r="K97" s="1">
+        <f t="shared" si="7"/>
+        <v>1521</v>
+      </c>
+      <c r="L97" s="1">
+        <f t="shared" si="8"/>
+        <v>364</v>
       </c>
       <c r="AJ97" s="4"/>
       <c r="AK97" s="4"/>
@@ -5696,9 +6362,9 @@
       <c r="AU97" s="4"/>
       <c r="AV97" s="4"/>
     </row>
-    <row r="98" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="C98" s="17">
@@ -5707,16 +6373,30 @@
       <c r="D98" s="18">
         <v>8</v>
       </c>
-      <c r="E98" s="19"/>
+      <c r="E98" s="19">
+        <v>87</v>
+      </c>
       <c r="F98" s="37">
         <f>IF(ISBLANK(E98),0,IF(E98=Answers!E98,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="25" t="s">
         <v>37</v>
       </c>
       <c r="H98" s="25">
         <v>3</v>
+      </c>
+      <c r="J98" s="1">
+        <f t="shared" si="9"/>
+        <v>510</v>
+      </c>
+      <c r="K98" s="1">
+        <f t="shared" si="7"/>
+        <v>423</v>
+      </c>
+      <c r="L98" s="1">
+        <f t="shared" si="8"/>
+        <v>87</v>
       </c>
       <c r="AJ98" s="4"/>
       <c r="AK98" s="4"/>
@@ -5732,9 +6412,9 @@
       <c r="AU98" s="4"/>
       <c r="AV98" s="4"/>
     </row>
-    <row r="99" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="C99" s="17">
@@ -5743,16 +6423,30 @@
       <c r="D99" s="18">
         <v>8</v>
       </c>
-      <c r="E99" s="19"/>
+      <c r="E99" s="19">
+        <v>1092</v>
+      </c>
       <c r="F99" s="37">
         <f>IF(ISBLANK(E99),0,IF(E99=Answers!E99,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H99" s="25">
         <v>21</v>
+      </c>
+      <c r="J99" s="1">
+        <f t="shared" si="9"/>
+        <v>4095</v>
+      </c>
+      <c r="K99" s="1">
+        <f t="shared" si="7"/>
+        <v>3003</v>
+      </c>
+      <c r="L99" s="1">
+        <f t="shared" si="8"/>
+        <v>1092</v>
       </c>
       <c r="AJ99" s="4"/>
       <c r="AK99" s="4"/>
@@ -5768,9 +6462,9 @@
       <c r="AU99" s="4"/>
       <c r="AV99" s="4"/>
     </row>
-    <row r="100" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="C100" s="17">
@@ -5779,16 +6473,30 @@
       <c r="D100" s="18">
         <v>8</v>
       </c>
-      <c r="E100" s="19"/>
+      <c r="E100" s="19">
+        <v>1150</v>
+      </c>
       <c r="F100" s="37">
         <f>IF(ISBLANK(E100),0,IF(E100=Answers!E100,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H100" s="25">
         <v>23</v>
+      </c>
+      <c r="J100" s="1">
+        <f t="shared" si="9"/>
+        <v>4600</v>
+      </c>
+      <c r="K100" s="1">
+        <f t="shared" si="7"/>
+        <v>3450</v>
+      </c>
+      <c r="L100" s="1">
+        <f t="shared" si="8"/>
+        <v>1150</v>
       </c>
       <c r="AJ100" s="4"/>
       <c r="AK100" s="4"/>
@@ -5804,7 +6512,7 @@
       <c r="AU100" s="4"/>
       <c r="AV100" s="4"/>
     </row>
-    <row r="101" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="11"/>
@@ -5822,7 +6530,7 @@
       <c r="AU101" s="4"/>
       <c r="AV101" s="4"/>
     </row>
-    <row r="102" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B102" s="17" t="s">
         <v>85</v>
       </c>
@@ -5834,11 +6542,11 @@
       </c>
       <c r="E102" s="19">
         <f>SUM(E81:E100)</f>
-        <v>0</v>
+        <v>8141</v>
       </c>
       <c r="F102" s="37">
         <f>IF(ISBLANK(E102),0,IF(E102=Answers!E102,1,-1))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK102" s="4"/>
       <c r="AL102" s="4"/>
@@ -5853,7 +6561,7 @@
       <c r="AU102" s="4"/>
       <c r="AV102" s="4"/>
     </row>
-    <row r="103" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="11"/>
@@ -5871,7 +6579,7 @@
       <c r="AU103" s="4"/>
       <c r="AV103" s="4"/>
     </row>
-    <row r="104" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -5890,7 +6598,7 @@
       <c r="AU104" s="4"/>
       <c r="AV104" s="4"/>
     </row>
-    <row r="105" spans="2:48" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:48" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="23" t="s">
         <v>94</v>
       </c>
@@ -5916,7 +6624,7 @@
       <c r="AU105" s="4"/>
       <c r="AV105" s="4"/>
     </row>
-    <row r="106" spans="2:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B106" s="22"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -5938,7 +6646,7 @@
       <c r="AU106" s="4"/>
       <c r="AV106" s="4"/>
     </row>
-    <row r="107" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B107" s="22" t="s">
         <v>88</v>
       </c>
@@ -5962,7 +6670,7 @@
       <c r="AU107" s="4"/>
       <c r="AV107" s="4"/>
     </row>
-    <row r="108" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B108" s="22" t="s">
         <v>96</v>
       </c>
@@ -5986,7 +6694,7 @@
       <c r="AU108" s="4"/>
       <c r="AV108" s="4"/>
     </row>
-    <row r="109" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B109" s="22" t="s">
         <v>97</v>
       </c>
@@ -6010,7 +6718,7 @@
       <c r="AU109" s="4"/>
       <c r="AV109" s="4"/>
     </row>
-    <row r="110" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B110" s="22"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -6038,7 +6746,7 @@
       <c r="AU110" s="4"/>
       <c r="AV110" s="4"/>
     </row>
-    <row r="111" spans="2:48" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:48" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B111" s="21" t="s">
         <v>62</v>
       </c>
@@ -6082,7 +6790,7 @@
       <c r="AU111" s="4"/>
       <c r="AV111" s="4"/>
     </row>
-    <row r="112" spans="2:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -6109,7 +6817,7 @@
       <c r="AU112" s="4"/>
       <c r="AV112" s="4"/>
     </row>
-    <row r="113" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B113" s="17" t="s">
         <v>99</v>
       </c>
@@ -6157,7 +6865,7 @@
       <c r="AU113" s="4"/>
       <c r="AV113" s="4"/>
     </row>
-    <row r="114" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -6184,7 +6892,7 @@
       <c r="AU114" s="4"/>
       <c r="AV114" s="4"/>
     </row>
-    <row r="115" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B115" s="17">
         <v>31</v>
       </c>
@@ -6230,9 +6938,9 @@
       <c r="AU115" s="4"/>
       <c r="AV115" s="4"/>
     </row>
-    <row r="116" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B116" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="C116" s="17">
@@ -6277,9 +6985,9 @@
       <c r="AU116" s="4"/>
       <c r="AV116" s="4"/>
     </row>
-    <row r="117" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B117" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="C117" s="17">
@@ -6324,9 +7032,9 @@
       <c r="AU117" s="4"/>
       <c r="AV117" s="4"/>
     </row>
-    <row r="118" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B118" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="C118" s="17">
@@ -6371,9 +7079,9 @@
       <c r="AU118" s="4"/>
       <c r="AV118" s="4"/>
     </row>
-    <row r="119" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B119" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="C119" s="17">
@@ -6418,9 +7126,9 @@
       <c r="AU119" s="4"/>
       <c r="AV119" s="4"/>
     </row>
-    <row r="120" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B120" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="C120" s="17">
@@ -6465,9 +7173,9 @@
       <c r="AU120" s="4"/>
       <c r="AV120" s="4"/>
     </row>
-    <row r="121" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B121" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="C121" s="17">
@@ -6512,9 +7220,9 @@
       <c r="AU121" s="4"/>
       <c r="AV121" s="4"/>
     </row>
-    <row r="122" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B122" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="C122" s="17">
@@ -6559,9 +7267,9 @@
       <c r="AU122" s="4"/>
       <c r="AV122" s="4"/>
     </row>
-    <row r="123" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B123" s="17">
-        <f t="shared" ref="B123:B188" si="1">B122+1</f>
+        <f t="shared" ref="B123:B188" si="10">B122+1</f>
         <v>39</v>
       </c>
       <c r="C123" s="17">
@@ -6606,9 +7314,9 @@
       <c r="AU123" s="4"/>
       <c r="AV123" s="4"/>
     </row>
-    <row r="124" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B124" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="C124" s="17">
@@ -6653,9 +7361,9 @@
       <c r="AU124" s="4"/>
       <c r="AV124" s="4"/>
     </row>
-    <row r="125" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B125" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="C125" s="17">
@@ -6700,9 +7408,9 @@
       <c r="AU125" s="4"/>
       <c r="AV125" s="4"/>
     </row>
-    <row r="126" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B126" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="C126" s="17">
@@ -6747,9 +7455,9 @@
       <c r="AU126" s="4"/>
       <c r="AV126" s="4"/>
     </row>
-    <row r="127" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B127" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="C127" s="17">
@@ -6794,9 +7502,9 @@
       <c r="AU127" s="4"/>
       <c r="AV127" s="4"/>
     </row>
-    <row r="128" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B128" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="C128" s="17">
@@ -6841,9 +7549,9 @@
       <c r="AU128" s="4"/>
       <c r="AV128" s="4"/>
     </row>
-    <row r="129" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B129" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="C129" s="17">
@@ -6888,9 +7596,9 @@
       <c r="AU129" s="4"/>
       <c r="AV129" s="4"/>
     </row>
-    <row r="130" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B130" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="C130" s="17">
@@ -6935,9 +7643,9 @@
       <c r="AU130" s="4"/>
       <c r="AV130" s="4"/>
     </row>
-    <row r="131" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B131" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="C131" s="17">
@@ -6982,9 +7690,9 @@
       <c r="AU131" s="4"/>
       <c r="AV131" s="4"/>
     </row>
-    <row r="132" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B132" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="C132" s="17">
@@ -7029,9 +7737,9 @@
       <c r="AU132" s="4"/>
       <c r="AV132" s="4"/>
     </row>
-    <row r="133" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B133" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="C133" s="17">
@@ -7076,9 +7784,9 @@
       <c r="AU133" s="4"/>
       <c r="AV133" s="4"/>
     </row>
-    <row r="134" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B134" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="C134" s="17">
@@ -7123,7 +7831,7 @@
       <c r="AU134" s="4"/>
       <c r="AV134" s="4"/>
     </row>
-    <row r="135" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -7142,7 +7850,7 @@
       <c r="AU135" s="4"/>
       <c r="AV135" s="4"/>
     </row>
-    <row r="136" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B136" s="17" t="s">
         <v>85</v>
       </c>
@@ -7173,7 +7881,7 @@
       <c r="AU136" s="4"/>
       <c r="AV136" s="4"/>
     </row>
-    <row r="137" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -7192,7 +7900,7 @@
       <c r="AU137" s="4"/>
       <c r="AV137" s="4"/>
     </row>
-    <row r="138" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -7211,7 +7919,7 @@
       <c r="AU138" s="4"/>
       <c r="AV138" s="4"/>
     </row>
-    <row r="139" spans="2:48" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:48" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B139" s="23" t="s">
         <v>100</v>
       </c>
@@ -7234,7 +7942,7 @@
       <c r="AU139" s="4"/>
       <c r="AV139" s="4"/>
     </row>
-    <row r="140" spans="2:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B140" s="22"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -7253,7 +7961,7 @@
       <c r="AU140" s="4"/>
       <c r="AV140" s="4"/>
     </row>
-    <row r="141" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B141" s="22" t="s">
         <v>102</v>
       </c>
@@ -7274,7 +7982,7 @@
       <c r="AU141" s="4"/>
       <c r="AV141" s="4"/>
     </row>
-    <row r="142" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B142" s="22" t="s">
         <v>103</v>
       </c>
@@ -7295,7 +8003,7 @@
       <c r="AU142" s="4"/>
       <c r="AV142" s="4"/>
     </row>
-    <row r="143" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B143" s="22" t="s">
         <v>104</v>
       </c>
@@ -7316,7 +8024,7 @@
       <c r="AU143" s="4"/>
       <c r="AV143" s="4"/>
     </row>
-    <row r="144" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B144" s="22" t="s">
         <v>105</v>
       </c>
@@ -7342,7 +8050,7 @@
       <c r="AU144" s="4"/>
       <c r="AV144" s="4"/>
     </row>
-    <row r="145" spans="2:48" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:48" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B145" s="21" t="s">
         <v>62</v>
       </c>
@@ -7377,7 +8085,7 @@
       <c r="AU145" s="4"/>
       <c r="AV145" s="4"/>
     </row>
-    <row r="146" spans="2:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -7401,7 +8109,7 @@
       <c r="AU146" s="4"/>
       <c r="AV146" s="4"/>
     </row>
-    <row r="147" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B147" s="17" t="s">
         <v>108</v>
       </c>
@@ -7440,7 +8148,7 @@
       <c r="AU147" s="4"/>
       <c r="AV147" s="4"/>
     </row>
-    <row r="148" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -7462,7 +8170,7 @@
       <c r="AU148" s="4"/>
       <c r="AV148" s="4"/>
     </row>
-    <row r="149" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B149" s="17">
         <v>51</v>
       </c>
@@ -7499,9 +8207,9 @@
       <c r="AU149" s="4"/>
       <c r="AV149" s="4"/>
     </row>
-    <row r="150" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B150" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="C150" s="17">
@@ -7537,9 +8245,9 @@
       <c r="AU150" s="4"/>
       <c r="AV150" s="4"/>
     </row>
-    <row r="151" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B151" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="C151" s="17">
@@ -7575,9 +8283,9 @@
       <c r="AU151" s="4"/>
       <c r="AV151" s="4"/>
     </row>
-    <row r="152" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B152" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="C152" s="17">
@@ -7613,9 +8321,9 @@
       <c r="AU152" s="4"/>
       <c r="AV152" s="4"/>
     </row>
-    <row r="153" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B153" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="C153" s="17">
@@ -7651,9 +8359,9 @@
       <c r="AU153" s="4"/>
       <c r="AV153" s="4"/>
     </row>
-    <row r="154" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B154" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="C154" s="17">
@@ -7689,9 +8397,9 @@
       <c r="AU154" s="4"/>
       <c r="AV154" s="4"/>
     </row>
-    <row r="155" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B155" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="C155" s="17">
@@ -7727,9 +8435,9 @@
       <c r="AU155" s="4"/>
       <c r="AV155" s="4"/>
     </row>
-    <row r="156" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B156" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="C156" s="17">
@@ -7765,9 +8473,9 @@
       <c r="AU156" s="4"/>
       <c r="AV156" s="4"/>
     </row>
-    <row r="157" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B157" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="C157" s="17">
@@ -7803,9 +8511,9 @@
       <c r="AU157" s="4"/>
       <c r="AV157" s="4"/>
     </row>
-    <row r="158" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B158" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="C158" s="17">
@@ -7841,9 +8549,9 @@
       <c r="AU158" s="4"/>
       <c r="AV158" s="4"/>
     </row>
-    <row r="159" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B159" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
       <c r="C159" s="17">
@@ -7879,9 +8587,9 @@
       <c r="AU159" s="4"/>
       <c r="AV159" s="4"/>
     </row>
-    <row r="160" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B160" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="C160" s="17">
@@ -7917,9 +8625,9 @@
       <c r="AU160" s="4"/>
       <c r="AV160" s="4"/>
     </row>
-    <row r="161" spans="1:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B161" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="C161" s="17">
@@ -7955,9 +8663,9 @@
       <c r="AU161" s="4"/>
       <c r="AV161" s="4"/>
     </row>
-    <row r="162" spans="1:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B162" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="C162" s="17">
@@ -7993,9 +8701,9 @@
       <c r="AU162" s="4"/>
       <c r="AV162" s="4"/>
     </row>
-    <row r="163" spans="1:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B163" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="C163" s="17">
@@ -8031,9 +8739,9 @@
       <c r="AU163" s="4"/>
       <c r="AV163" s="4"/>
     </row>
-    <row r="164" spans="1:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B164" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="C164" s="17">
@@ -8069,9 +8777,9 @@
       <c r="AU164" s="4"/>
       <c r="AV164" s="4"/>
     </row>
-    <row r="165" spans="1:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B165" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="C165" s="17">
@@ -8107,9 +8815,9 @@
       <c r="AU165" s="4"/>
       <c r="AV165" s="4"/>
     </row>
-    <row r="166" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B166" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="C166" s="17">
@@ -8145,9 +8853,9 @@
       <c r="AU166" s="4"/>
       <c r="AV166" s="4"/>
     </row>
-    <row r="167" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B167" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="C167" s="17">
@@ -8183,9 +8891,9 @@
       <c r="AU167" s="4"/>
       <c r="AV167" s="4"/>
     </row>
-    <row r="168" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B168" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="C168" s="17">
@@ -8221,7 +8929,7 @@
       <c r="AU168" s="4"/>
       <c r="AV168" s="4"/>
     </row>
-    <row r="169" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
       <c r="D169" s="11"/>
@@ -8258,7 +8966,7 @@
       <c r="AU169" s="4"/>
       <c r="AV169" s="4"/>
     </row>
-    <row r="170" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B170" s="17" t="s">
         <v>85</v>
       </c>
@@ -8308,7 +9016,7 @@
       <c r="AU170" s="4"/>
       <c r="AV170" s="4"/>
     </row>
-    <row r="171" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
       <c r="D171" s="11"/>
@@ -8356,7 +9064,7 @@
       <c r="AU171" s="4"/>
       <c r="AV171" s="4"/>
     </row>
-    <row r="172" spans="1:48" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:48" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="11"/>
@@ -8404,7 +9112,7 @@
       <c r="AU172" s="4"/>
       <c r="AV172" s="4"/>
     </row>
-    <row r="173" spans="1:48" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:48" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4"/>
       <c r="B173" s="23" t="s">
         <v>130</v>
@@ -8458,7 +9166,7 @@
       <c r="AU173" s="4"/>
       <c r="AV173" s="4"/>
     </row>
-    <row r="174" spans="1:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="22"/>
       <c r="C174" s="4"/>
@@ -8508,7 +9216,7 @@
       <c r="AU174" s="4"/>
       <c r="AV174" s="4"/>
     </row>
-    <row r="175" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="22" t="s">
         <v>131</v>
@@ -8560,7 +9268,7 @@
       <c r="AU175" s="4"/>
       <c r="AV175" s="4"/>
     </row>
-    <row r="176" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="22" t="s">
         <v>132</v>
@@ -8612,7 +9320,7 @@
       <c r="AU176" s="4"/>
       <c r="AV176" s="4"/>
     </row>
-    <row r="177" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="22" t="s">
         <v>133</v>
@@ -8664,7 +9372,7 @@
       <c r="AU177" s="4"/>
       <c r="AV177" s="4"/>
     </row>
-    <row r="178" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="22" t="s">
         <v>134</v>
@@ -8716,7 +9424,7 @@
       <c r="AU178" s="4"/>
       <c r="AV178" s="4"/>
     </row>
-    <row r="179" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4"/>
       <c r="B179" s="22"/>
       <c r="C179" s="4"/>
@@ -8766,7 +9474,7 @@
       <c r="AU179" s="4"/>
       <c r="AV179" s="4"/>
     </row>
-    <row r="180" spans="1:48" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:48" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B180" s="21" t="s">
         <v>62</v>
       </c>
@@ -8824,7 +9532,7 @@
       <c r="AU180" s="4"/>
       <c r="AV180" s="4"/>
     </row>
-    <row r="181" spans="1:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -8872,7 +9580,7 @@
       <c r="AU181" s="4"/>
       <c r="AV181" s="4"/>
     </row>
-    <row r="182" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B182" s="17" t="s">
         <v>136</v>
       </c>
@@ -8934,7 +9642,7 @@
       <c r="AU182" s="4"/>
       <c r="AV182" s="4"/>
     </row>
-    <row r="183" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -8981,7 +9689,7 @@
       <c r="AU183" s="4"/>
       <c r="AV183" s="4"/>
     </row>
-    <row r="184" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B184" s="17">
         <v>71</v>
       </c>
@@ -9041,9 +9749,9 @@
       <c r="AU184" s="4"/>
       <c r="AV184" s="4"/>
     </row>
-    <row r="185" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B185" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="C185" s="17">
@@ -9102,9 +9810,9 @@
       <c r="AU185" s="4"/>
       <c r="AV185" s="4"/>
     </row>
-    <row r="186" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B186" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="C186" s="17">
@@ -9163,9 +9871,9 @@
       <c r="AU186" s="4"/>
       <c r="AV186" s="4"/>
     </row>
-    <row r="187" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B187" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="C187" s="17">
@@ -9224,9 +9932,9 @@
       <c r="AU187" s="4"/>
       <c r="AV187" s="4"/>
     </row>
-    <row r="188" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B188" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="C188" s="17">
@@ -9285,9 +9993,9 @@
       <c r="AU188" s="4"/>
       <c r="AV188" s="4"/>
     </row>
-    <row r="189" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B189" s="17">
-        <f t="shared" ref="B189:B213" si="2">B188+1</f>
+        <f t="shared" ref="B189:B213" si="11">B188+1</f>
         <v>76</v>
       </c>
       <c r="C189" s="17">
@@ -9346,9 +10054,9 @@
       <c r="AU189" s="4"/>
       <c r="AV189" s="4"/>
     </row>
-    <row r="190" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B190" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
       <c r="C190" s="17">
@@ -9407,9 +10115,9 @@
       <c r="AU190" s="4"/>
       <c r="AV190" s="4"/>
     </row>
-    <row r="191" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B191" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="C191" s="17">
@@ -9468,9 +10176,9 @@
       <c r="AU191" s="4"/>
       <c r="AV191" s="4"/>
     </row>
-    <row r="192" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B192" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
       <c r="C192" s="17">
@@ -9529,9 +10237,9 @@
       <c r="AU192" s="4"/>
       <c r="AV192" s="4"/>
     </row>
-    <row r="193" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B193" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="C193" s="17">
@@ -9590,9 +10298,9 @@
       <c r="AU193" s="4"/>
       <c r="AV193" s="4"/>
     </row>
-    <row r="194" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B194" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="C194" s="17">
@@ -9651,9 +10359,9 @@
       <c r="AU194" s="4"/>
       <c r="AV194" s="4"/>
     </row>
-    <row r="195" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B195" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
       <c r="C195" s="17">
@@ -9712,9 +10420,9 @@
       <c r="AU195" s="4"/>
       <c r="AV195" s="4"/>
     </row>
-    <row r="196" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B196" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
       <c r="C196" s="17">
@@ -9773,9 +10481,9 @@
       <c r="AU196" s="4"/>
       <c r="AV196" s="4"/>
     </row>
-    <row r="197" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B197" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>84</v>
       </c>
       <c r="C197" s="17">
@@ -9834,9 +10542,9 @@
       <c r="AU197" s="4"/>
       <c r="AV197" s="4"/>
     </row>
-    <row r="198" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B198" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="C198" s="17">
@@ -9895,9 +10603,9 @@
       <c r="AU198" s="4"/>
       <c r="AV198" s="4"/>
     </row>
-    <row r="199" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B199" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>86</v>
       </c>
       <c r="C199" s="17">
@@ -9956,9 +10664,9 @@
       <c r="AU199" s="4"/>
       <c r="AV199" s="4"/>
     </row>
-    <row r="200" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B200" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
       <c r="C200" s="17">
@@ -10017,9 +10725,9 @@
       <c r="AU200" s="4"/>
       <c r="AV200" s="4"/>
     </row>
-    <row r="201" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B201" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
       <c r="C201" s="17">
@@ -10078,9 +10786,9 @@
       <c r="AU201" s="4"/>
       <c r="AV201" s="4"/>
     </row>
-    <row r="202" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B202" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
       <c r="C202" s="17">
@@ -10139,9 +10847,9 @@
       <c r="AU202" s="4"/>
       <c r="AV202" s="4"/>
     </row>
-    <row r="203" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B203" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="C203" s="17">
@@ -10200,9 +10908,9 @@
       <c r="AU203" s="4"/>
       <c r="AV203" s="4"/>
     </row>
-    <row r="204" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B204" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>91</v>
       </c>
       <c r="C204" s="17">
@@ -10261,9 +10969,9 @@
       <c r="AU204" s="4"/>
       <c r="AV204" s="4"/>
     </row>
-    <row r="205" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B205" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>92</v>
       </c>
       <c r="C205" s="17">
@@ -10322,9 +11030,9 @@
       <c r="AU205" s="4"/>
       <c r="AV205" s="4"/>
     </row>
-    <row r="206" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B206" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
       <c r="C206" s="17">
@@ -10383,9 +11091,9 @@
       <c r="AU206" s="4"/>
       <c r="AV206" s="4"/>
     </row>
-    <row r="207" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B207" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
       <c r="C207" s="17">
@@ -10444,9 +11152,9 @@
       <c r="AU207" s="4"/>
       <c r="AV207" s="4"/>
     </row>
-    <row r="208" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B208" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="C208" s="17">
@@ -10505,9 +11213,9 @@
       <c r="AU208" s="4"/>
       <c r="AV208" s="4"/>
     </row>
-    <row r="209" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B209" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="C209" s="17">
@@ -10566,9 +11274,9 @@
       <c r="AU209" s="4"/>
       <c r="AV209" s="4"/>
     </row>
-    <row r="210" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B210" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="C210" s="17">
@@ -10627,9 +11335,9 @@
       <c r="AU210" s="4"/>
       <c r="AV210" s="4"/>
     </row>
-    <row r="211" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B211" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="C211" s="17">
@@ -10688,9 +11396,9 @@
       <c r="AU211" s="4"/>
       <c r="AV211" s="4"/>
     </row>
-    <row r="212" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B212" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
       <c r="C212" s="17">
@@ -10749,9 +11457,9 @@
       <c r="AU212" s="4"/>
       <c r="AV212" s="4"/>
     </row>
-    <row r="213" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B213" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="C213" s="17">
@@ -10810,7 +11518,7 @@
       <c r="AU213" s="4"/>
       <c r="AV213" s="4"/>
     </row>
-    <row r="214" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
       <c r="D214" s="11"/>
@@ -10858,7 +11566,7 @@
       <c r="AU214" s="4"/>
       <c r="AV214" s="4"/>
     </row>
-    <row r="215" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B215" s="17" t="s">
         <v>85</v>
       </c>
@@ -10879,31 +11587,31 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
     </row>
-    <row r="216" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
     </row>
-    <row r="217" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
     </row>
-    <row r="218" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
     </row>
-    <row r="219" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
     </row>
-    <row r="220" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
     </row>
-    <row r="221" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
     </row>
-    <row r="222" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
     </row>
@@ -11246,31 +11954,31 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" style="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="28.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" style="1" customWidth="1"/>
-    <col min="19" max="28" width="4.85546875" style="1" customWidth="1"/>
-    <col min="29" max="48" width="4.5703125" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="8.5703125" style="4"/>
+    <col min="19" max="28" width="4.88671875" style="1" customWidth="1"/>
+    <col min="29" max="48" width="4.5546875" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="8.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:48" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:48" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -11298,20 +12006,20 @@
       <c r="AU1" s="4"/>
       <c r="AV1" s="4"/>
     </row>
-    <row r="2" spans="2:48" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="102" t="s">
+    <row r="2" spans="2:48" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
       <c r="N2" s="44" t="s">
         <v>1</v>
       </c>
@@ -11338,7 +12046,7 @@
       <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
     </row>
-    <row r="3" spans="2:48" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:48" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="M3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -11348,7 +12056,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="2:48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -11357,7 +12065,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="2:48" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:48" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -11366,7 +12074,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="2:48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:48" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -11375,7 +12083,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="2:48" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:48" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -11384,7 +12092,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="2:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -11409,20 +12117,20 @@
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
     </row>
-    <row r="9" spans="2:48" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="123" t="s">
+    <row r="9" spans="2:48" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="125"/>
-      <c r="K9" s="132" t="s">
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="138"/>
+      <c r="K9" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="132"/>
+      <c r="L9" s="145"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
@@ -11447,16 +12155,16 @@
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
     </row>
-    <row r="10" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="133" t="s">
+    <row r="10" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="146" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="129"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
@@ -11482,14 +12190,14 @@
       <c r="AU10" s="4"/>
       <c r="AV10" s="4"/>
     </row>
-    <row r="11" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="117"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="119"/>
+    <row r="11" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="130"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="132"/>
       <c r="K11" s="90" t="s">
         <v>6</v>
       </c>
@@ -11522,14 +12230,14 @@
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
     </row>
-    <row r="12" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="119"/>
+    <row r="12" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="130"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="132"/>
       <c r="K12" s="79" t="s">
         <v>7</v>
       </c>
@@ -11552,14 +12260,14 @@
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
     </row>
-    <row r="13" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="117"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="119"/>
+    <row r="13" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="130"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="132"/>
       <c r="K13" s="58" t="s">
         <v>8</v>
       </c>
@@ -11592,14 +12300,14 @@
       <c r="AU13" s="4"/>
       <c r="AV13" s="4"/>
     </row>
-    <row r="14" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="117"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
+    <row r="14" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="130"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="132"/>
       <c r="K14" s="58" t="s">
         <v>9</v>
       </c>
@@ -11632,14 +12340,14 @@
       <c r="AU14" s="4"/>
       <c r="AV14" s="4"/>
     </row>
-    <row r="15" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="119"/>
+    <row r="15" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="130"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="132"/>
       <c r="K15" s="58" t="s">
         <v>10</v>
       </c>
@@ -11665,14 +12373,14 @@
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
     </row>
-    <row r="16" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="119"/>
+    <row r="16" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="130"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="132"/>
       <c r="K16" s="58" t="s">
         <v>11</v>
       </c>
@@ -11698,14 +12406,14 @@
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
     </row>
-    <row r="17" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="119"/>
+    <row r="17" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="132"/>
       <c r="K17" s="58" t="s">
         <v>12</v>
       </c>
@@ -11731,14 +12439,14 @@
       <c r="AU17" s="4"/>
       <c r="AV17" s="4"/>
     </row>
-    <row r="18" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="120"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="122"/>
+    <row r="18" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="133"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="135"/>
       <c r="K18" s="58" t="s">
         <v>13</v>
       </c>
@@ -11765,7 +12473,7 @@
       <c r="AU18" s="4"/>
       <c r="AV18" s="4"/>
     </row>
-    <row r="19" spans="2:48" customFormat="1" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:48" customFormat="1" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -11778,7 +12486,7 @@
       <c r="K19" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="134">
+      <c r="L19" s="102">
         <v>5</v>
       </c>
       <c r="N19" s="1"/>
@@ -11786,16 +12494,16 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="113" t="s">
+    <row r="20" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" s="58" t="s">
@@ -11815,7 +12523,7 @@
       <c r="AU20" s="4"/>
       <c r="AV20" s="4"/>
     </row>
-    <row r="21" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -11842,7 +12550,7 @@
       <c r="AU21" s="4"/>
       <c r="AV21" s="4"/>
     </row>
-    <row r="22" spans="2:48" ht="25.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:48" ht="25.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="61" t="s">
         <v>18</v>
       </c>
@@ -11875,7 +12583,7 @@
       <c r="AU22" s="4"/>
       <c r="AV22" s="4"/>
     </row>
-    <row r="23" spans="2:48" ht="25.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:48" ht="25.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B23" s="57" t="s">
         <v>22</v>
       </c>
@@ -11908,7 +12616,7 @@
       <c r="AU23" s="4"/>
       <c r="AV23" s="4"/>
     </row>
-    <row r="24" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="51" t="s">
         <v>25</v>
       </c>
@@ -11941,7 +12649,7 @@
       <c r="AU24" s="4"/>
       <c r="AV24" s="4"/>
     </row>
-    <row r="25" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="51" t="s">
         <v>28</v>
       </c>
@@ -11977,7 +12685,7 @@
       <c r="AU25" s="4"/>
       <c r="AV25" s="4"/>
     </row>
-    <row r="26" spans="2:48" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:48" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="51" t="s">
         <v>31</v>
       </c>
@@ -12005,7 +12713,7 @@
       <c r="AU26" s="4"/>
       <c r="AV26" s="4"/>
     </row>
-    <row r="27" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="51" t="s">
         <v>34</v>
       </c>
@@ -12033,7 +12741,7 @@
       <c r="AU27" s="4"/>
       <c r="AV27" s="4"/>
     </row>
-    <row r="28" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="52" t="s">
         <v>37</v>
       </c>
@@ -12061,7 +12769,7 @@
       <c r="AU28" s="4"/>
       <c r="AV28" s="4"/>
     </row>
-    <row r="29" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="45"/>
@@ -12083,16 +12791,16 @@
       <c r="AU29" s="4"/>
       <c r="AV29" s="4"/>
     </row>
-    <row r="30" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="113" t="s">
+    <row r="30" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
       <c r="K30" s="58" t="s">
@@ -12107,7 +12815,7 @@
       <c r="AU30" s="4"/>
       <c r="AV30" s="4"/>
     </row>
-    <row r="31" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="45"/>
@@ -12129,7 +12837,7 @@
       <c r="AU31" s="4"/>
       <c r="AV31" s="4"/>
     </row>
-    <row r="32" spans="2:48" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:48" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="61" t="s">
         <v>44</v>
       </c>
@@ -12159,12 +12867,12 @@
       <c r="AU32" s="4"/>
       <c r="AV32" s="4"/>
     </row>
-    <row r="33" spans="2:48" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:48" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B33" s="57" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="49"/>
-      <c r="D33" s="135" t="s">
+      <c r="D33" s="103" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="46">
@@ -12189,7 +12897,7 @@
       <c r="AU33" s="4"/>
       <c r="AV33" s="4"/>
     </row>
-    <row r="34" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="51" t="s">
         <v>52</v>
       </c>
@@ -12219,12 +12927,12 @@
       <c r="AU34" s="4"/>
       <c r="AV34" s="4"/>
     </row>
-    <row r="35" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="53"/>
-      <c r="D35" s="136" t="s">
+      <c r="D35" s="104" t="s">
         <v>56</v>
       </c>
       <c r="E35" s="54">
@@ -12249,7 +12957,7 @@
       <c r="AU35" s="4"/>
       <c r="AV35" s="4"/>
     </row>
-    <row r="36" spans="2:48" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:48" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
@@ -12279,7 +12987,7 @@
       <c r="AU36" s="4"/>
       <c r="AV36" s="4"/>
     </row>
-    <row r="37" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK37" s="4"/>
       <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
@@ -12293,7 +13001,7 @@
       <c r="AU37" s="4"/>
       <c r="AV37" s="4"/>
     </row>
-    <row r="38" spans="2:48" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:48" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B38" s="32" t="s">
         <v>60</v>
       </c>
@@ -12320,7 +13028,7 @@
       <c r="AU38" s="4"/>
       <c r="AV38" s="4"/>
     </row>
-    <row r="39" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
       <c r="AM39" s="4"/>
@@ -12334,7 +13042,7 @@
       <c r="AU39" s="4"/>
       <c r="AV39" s="4"/>
     </row>
-    <row r="40" spans="2:48" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:48" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="33" t="s">
         <v>61</v>
       </c>
@@ -12353,7 +13061,7 @@
       <c r="AU40" s="4"/>
       <c r="AV40" s="4"/>
     </row>
-    <row r="41" spans="2:48" ht="14.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:48" ht="14.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="21" t="s">
         <v>62</v>
       </c>
@@ -12366,14 +13074,14 @@
       <c r="E41" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="110" t="s">
+      <c r="G41" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="112"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="125"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
@@ -12394,7 +13102,7 @@
       <c r="AU41" s="4"/>
       <c r="AV41" s="4"/>
     </row>
-    <row r="42" spans="2:48" ht="35.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:48" ht="35.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>67</v>
       </c>
@@ -12408,14 +13116,14 @@
         <v>15</v>
       </c>
       <c r="F42" s="37"/>
-      <c r="G42" s="126" t="s">
+      <c r="G42" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="127"/>
-      <c r="L42" s="128"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="140"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="141"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
@@ -12436,7 +13144,7 @@
       <c r="AU42" s="4"/>
       <c r="AV42" s="4"/>
     </row>
-    <row r="43" spans="2:48" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:48" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>70</v>
       </c>
@@ -12450,14 +13158,14 @@
         <v>12</v>
       </c>
       <c r="F43" s="37"/>
-      <c r="G43" s="129" t="s">
+      <c r="G43" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="130"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="131"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="143"/>
+      <c r="K43" s="143"/>
+      <c r="L43" s="144"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
@@ -12478,7 +13186,7 @@
       <c r="AU43" s="4"/>
       <c r="AV43" s="4"/>
     </row>
-    <row r="44" spans="2:48" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:48" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="14" t="s">
         <v>72</v>
       </c>
@@ -12492,14 +13200,14 @@
         <v>31</v>
       </c>
       <c r="F44" s="37"/>
-      <c r="G44" s="107" t="s">
+      <c r="G44" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="109"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="122"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
@@ -12520,7 +13228,7 @@
       <c r="AU44" s="4"/>
       <c r="AV44" s="4"/>
     </row>
-    <row r="45" spans="2:48" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:48" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="AK45" s="4"/>
       <c r="AL45" s="4"/>
       <c r="AM45" s="4"/>
@@ -12534,7 +13242,7 @@
       <c r="AU45" s="4"/>
       <c r="AV45" s="4"/>
     </row>
-    <row r="46" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
@@ -12548,7 +13256,7 @@
       <c r="AU46" s="4"/>
       <c r="AV46" s="4"/>
     </row>
-    <row r="47" spans="2:48" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:48" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B47" s="40" t="s">
         <v>73</v>
       </c>
@@ -12575,7 +13283,7 @@
       <c r="AU47" s="4"/>
       <c r="AV47" s="4"/>
     </row>
-    <row r="48" spans="2:48" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:48" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -12607,7 +13315,7 @@
       <c r="AU48" s="4"/>
       <c r="AV48" s="4"/>
     </row>
-    <row r="49" spans="2:48" ht="24.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:48" ht="24.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="23" t="s">
         <v>74</v>
       </c>
@@ -12627,7 +13335,7 @@
       <c r="AU49" s="4"/>
       <c r="AV49" s="4"/>
     </row>
-    <row r="50" spans="2:48" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:48" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="AK50" s="4"/>
       <c r="AL50" s="4"/>
       <c r="AM50" s="4"/>
@@ -12641,7 +13349,7 @@
       <c r="AU50" s="4"/>
       <c r="AV50" s="4"/>
     </row>
-    <row r="51" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="22" t="s">
         <v>77</v>
       </c>
@@ -12660,7 +13368,7 @@
       <c r="AU51" s="4"/>
       <c r="AV51" s="4"/>
     </row>
-    <row r="52" spans="2:48" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:48" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="22"/>
       <c r="G52" s="26"/>
       <c r="P52" s="4"/>
@@ -12678,7 +13386,7 @@
       <c r="AU52" s="4"/>
       <c r="AV52" s="4"/>
     </row>
-    <row r="53" spans="2:48" ht="25.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:48" ht="25.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="21" t="s">
         <v>62</v>
       </c>
@@ -12712,7 +13420,7 @@
       <c r="AU53" s="4"/>
       <c r="AV53" s="4"/>
     </row>
-    <row r="54" spans="2:48" ht="25.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:48" ht="25.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -12732,7 +13440,7 @@
       <c r="AU54" s="4"/>
       <c r="AV54" s="4"/>
     </row>
-    <row r="55" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>80</v>
       </c>
@@ -12766,7 +13474,7 @@
       <c r="AU55" s="4"/>
       <c r="AV55" s="4"/>
     </row>
-    <row r="56" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -12786,7 +13494,7 @@
       <c r="AU56" s="4"/>
       <c r="AV56" s="4"/>
     </row>
-    <row r="57" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B57" s="17">
         <v>1</v>
       </c>
@@ -12820,7 +13528,7 @@
       <c r="AU57" s="4"/>
       <c r="AV57" s="4"/>
     </row>
-    <row r="58" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B58" s="17">
         <f>B57+1</f>
         <v>2</v>
@@ -12855,7 +13563,7 @@
       <c r="AU58" s="4"/>
       <c r="AV58" s="4"/>
     </row>
-    <row r="59" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B59" s="17">
         <f>B58+1</f>
         <v>3</v>
@@ -12890,7 +13598,7 @@
       <c r="AU59" s="4"/>
       <c r="AV59" s="4"/>
     </row>
-    <row r="60" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B60" s="17">
         <f t="shared" ref="B60:B123" si="0">B59+1</f>
         <v>4</v>
@@ -12925,7 +13633,7 @@
       <c r="AU60" s="4"/>
       <c r="AV60" s="4"/>
     </row>
-    <row r="61" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B61" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12960,7 +13668,7 @@
       <c r="AU61" s="4"/>
       <c r="AV61" s="4"/>
     </row>
-    <row r="62" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B62" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12995,7 +13703,7 @@
       <c r="AU62" s="4"/>
       <c r="AV62" s="4"/>
     </row>
-    <row r="63" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B63" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -13028,7 +13736,7 @@
       <c r="AU63" s="4"/>
       <c r="AV63" s="4"/>
     </row>
-    <row r="64" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B64" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -13061,7 +13769,7 @@
       <c r="AU64" s="4"/>
       <c r="AV64" s="4"/>
     </row>
-    <row r="65" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B65" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -13094,7 +13802,7 @@
       <c r="AU65" s="4"/>
       <c r="AV65" s="4"/>
     </row>
-    <row r="66" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B66" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -13127,7 +13835,7 @@
       <c r="AU66" s="4"/>
       <c r="AV66" s="4"/>
     </row>
-    <row r="67" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -13145,7 +13853,7 @@
       <c r="AU67" s="4"/>
       <c r="AV67" s="4"/>
     </row>
-    <row r="68" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B68" s="17" t="s">
         <v>85</v>
       </c>
@@ -13172,7 +13880,7 @@
       <c r="AU68" s="4"/>
       <c r="AV68" s="4"/>
     </row>
-    <row r="69" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -13190,7 +13898,7 @@
       <c r="AU69" s="4"/>
       <c r="AV69" s="4"/>
     </row>
-    <row r="70" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -13208,7 +13916,7 @@
       <c r="AU70" s="4"/>
       <c r="AV70" s="4"/>
     </row>
-    <row r="71" spans="2:48" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:48" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="23" t="s">
         <v>86</v>
       </c>
@@ -13230,7 +13938,7 @@
       <c r="AU71" s="4"/>
       <c r="AV71" s="4"/>
     </row>
-    <row r="72" spans="2:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B72" s="22"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -13248,7 +13956,7 @@
       <c r="AU72" s="4"/>
       <c r="AV72" s="4"/>
     </row>
-    <row r="73" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B73" s="22" t="s">
         <v>88</v>
       </c>
@@ -13268,7 +13976,7 @@
       <c r="AU73" s="4"/>
       <c r="AV73" s="4"/>
     </row>
-    <row r="74" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B74" s="22" t="s">
         <v>89</v>
       </c>
@@ -13288,7 +13996,7 @@
       <c r="AU74" s="4"/>
       <c r="AV74" s="4"/>
     </row>
-    <row r="75" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B75" s="22" t="s">
         <v>90</v>
       </c>
@@ -13308,7 +14016,7 @@
       <c r="AU75" s="4"/>
       <c r="AV75" s="4"/>
     </row>
-    <row r="76" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
       <c r="D76" s="1"/>
@@ -13326,7 +14034,7 @@
       <c r="AU76" s="4"/>
       <c r="AV76" s="4"/>
     </row>
-    <row r="77" spans="2:48" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:48" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="21" t="s">
         <v>62</v>
       </c>
@@ -13359,7 +14067,7 @@
       <c r="AU77" s="4"/>
       <c r="AV77" s="4"/>
     </row>
-    <row r="78" spans="2:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -13378,7 +14086,7 @@
       <c r="AU78" s="4"/>
       <c r="AV78" s="4"/>
     </row>
-    <row r="79" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="17" t="s">
         <v>91</v>
       </c>
@@ -13411,7 +14119,7 @@
       <c r="AU79" s="4"/>
       <c r="AV79" s="4"/>
     </row>
-    <row r="80" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -13430,7 +14138,7 @@
       <c r="AU80" s="4"/>
       <c r="AV80" s="4"/>
     </row>
-    <row r="81" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="17">
         <v>11</v>
       </c>
@@ -13463,7 +14171,7 @@
       <c r="AU81" s="4"/>
       <c r="AV81" s="4"/>
     </row>
-    <row r="82" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -13497,7 +14205,7 @@
       <c r="AU82" s="4"/>
       <c r="AV82" s="4"/>
     </row>
-    <row r="83" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -13531,7 +14239,7 @@
       <c r="AU83" s="4"/>
       <c r="AV83" s="4"/>
     </row>
-    <row r="84" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -13565,7 +14273,7 @@
       <c r="AU84" s="4"/>
       <c r="AV84" s="4"/>
     </row>
-    <row r="85" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -13599,7 +14307,7 @@
       <c r="AU85" s="4"/>
       <c r="AV85" s="4"/>
     </row>
-    <row r="86" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -13633,7 +14341,7 @@
       <c r="AU86" s="4"/>
       <c r="AV86" s="4"/>
     </row>
-    <row r="87" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -13667,7 +14375,7 @@
       <c r="AU87" s="4"/>
       <c r="AV87" s="4"/>
     </row>
-    <row r="88" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -13701,7 +14409,7 @@
       <c r="AU88" s="4"/>
       <c r="AV88" s="4"/>
     </row>
-    <row r="89" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -13735,7 +14443,7 @@
       <c r="AU89" s="4"/>
       <c r="AV89" s="4"/>
     </row>
-    <row r="90" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -13769,7 +14477,7 @@
       <c r="AU90" s="4"/>
       <c r="AV90" s="4"/>
     </row>
-    <row r="91" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -13803,7 +14511,7 @@
       <c r="AU91" s="4"/>
       <c r="AV91" s="4"/>
     </row>
-    <row r="92" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -13837,7 +14545,7 @@
       <c r="AU92" s="4"/>
       <c r="AV92" s="4"/>
     </row>
-    <row r="93" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -13871,7 +14579,7 @@
       <c r="AU93" s="4"/>
       <c r="AV93" s="4"/>
     </row>
-    <row r="94" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -13905,7 +14613,7 @@
       <c r="AU94" s="4"/>
       <c r="AV94" s="4"/>
     </row>
-    <row r="95" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -13939,7 +14647,7 @@
       <c r="AU95" s="4"/>
       <c r="AV95" s="4"/>
     </row>
-    <row r="96" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -13973,7 +14681,7 @@
       <c r="AU96" s="4"/>
       <c r="AV96" s="4"/>
     </row>
-    <row r="97" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -14007,7 +14715,7 @@
       <c r="AU97" s="4"/>
       <c r="AV97" s="4"/>
     </row>
-    <row r="98" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -14041,7 +14749,7 @@
       <c r="AU98" s="4"/>
       <c r="AV98" s="4"/>
     </row>
-    <row r="99" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -14075,7 +14783,7 @@
       <c r="AU99" s="4"/>
       <c r="AV99" s="4"/>
     </row>
-    <row r="100" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -14109,7 +14817,7 @@
       <c r="AU100" s="4"/>
       <c r="AV100" s="4"/>
     </row>
-    <row r="101" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="11"/>
@@ -14127,7 +14835,7 @@
       <c r="AU101" s="4"/>
       <c r="AV101" s="4"/>
     </row>
-    <row r="102" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B102" s="17" t="s">
         <v>85</v>
       </c>
@@ -14154,7 +14862,7 @@
       <c r="AU102" s="4"/>
       <c r="AV102" s="4"/>
     </row>
-    <row r="103" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="11"/>
@@ -14172,7 +14880,7 @@
       <c r="AU103" s="4"/>
       <c r="AV103" s="4"/>
     </row>
-    <row r="104" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -14191,7 +14899,7 @@
       <c r="AU104" s="4"/>
       <c r="AV104" s="4"/>
     </row>
-    <row r="105" spans="2:48" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:48" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="23" t="s">
         <v>94</v>
       </c>
@@ -14217,7 +14925,7 @@
       <c r="AU105" s="4"/>
       <c r="AV105" s="4"/>
     </row>
-    <row r="106" spans="2:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B106" s="22"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -14239,7 +14947,7 @@
       <c r="AU106" s="4"/>
       <c r="AV106" s="4"/>
     </row>
-    <row r="107" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B107" s="22" t="s">
         <v>88</v>
       </c>
@@ -14263,7 +14971,7 @@
       <c r="AU107" s="4"/>
       <c r="AV107" s="4"/>
     </row>
-    <row r="108" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B108" s="22" t="s">
         <v>96</v>
       </c>
@@ -14287,7 +14995,7 @@
       <c r="AU108" s="4"/>
       <c r="AV108" s="4"/>
     </row>
-    <row r="109" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B109" s="22" t="s">
         <v>97</v>
       </c>
@@ -14311,7 +15019,7 @@
       <c r="AU109" s="4"/>
       <c r="AV109" s="4"/>
     </row>
-    <row r="110" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B110" s="22"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -14339,7 +15047,7 @@
       <c r="AU110" s="4"/>
       <c r="AV110" s="4"/>
     </row>
-    <row r="111" spans="2:48" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:48" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B111" s="21" t="s">
         <v>62</v>
       </c>
@@ -14383,7 +15091,7 @@
       <c r="AU111" s="4"/>
       <c r="AV111" s="4"/>
     </row>
-    <row r="112" spans="2:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -14410,7 +15118,7 @@
       <c r="AU112" s="4"/>
       <c r="AV112" s="4"/>
     </row>
-    <row r="113" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B113" s="17" t="s">
         <v>99</v>
       </c>
@@ -14454,7 +15162,7 @@
       <c r="AU113" s="4"/>
       <c r="AV113" s="4"/>
     </row>
-    <row r="114" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -14481,7 +15189,7 @@
       <c r="AU114" s="4"/>
       <c r="AV114" s="4"/>
     </row>
-    <row r="115" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B115" s="17">
         <v>31</v>
       </c>
@@ -14525,7 +15233,7 @@
       <c r="AU115" s="4"/>
       <c r="AV115" s="4"/>
     </row>
-    <row r="116" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B116" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -14570,7 +15278,7 @@
       <c r="AU116" s="4"/>
       <c r="AV116" s="4"/>
     </row>
-    <row r="117" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B117" s="17">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -14615,7 +15323,7 @@
       <c r="AU117" s="4"/>
       <c r="AV117" s="4"/>
     </row>
-    <row r="118" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B118" s="17">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -14660,7 +15368,7 @@
       <c r="AU118" s="4"/>
       <c r="AV118" s="4"/>
     </row>
-    <row r="119" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B119" s="17">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -14705,7 +15413,7 @@
       <c r="AU119" s="4"/>
       <c r="AV119" s="4"/>
     </row>
-    <row r="120" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B120" s="17">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -14750,7 +15458,7 @@
       <c r="AU120" s="4"/>
       <c r="AV120" s="4"/>
     </row>
-    <row r="121" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B121" s="17">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -14795,7 +15503,7 @@
       <c r="AU121" s="4"/>
       <c r="AV121" s="4"/>
     </row>
-    <row r="122" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B122" s="17">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -14840,7 +15548,7 @@
       <c r="AU122" s="4"/>
       <c r="AV122" s="4"/>
     </row>
-    <row r="123" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B123" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -14885,7 +15593,7 @@
       <c r="AU123" s="4"/>
       <c r="AV123" s="4"/>
     </row>
-    <row r="124" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B124" s="17">
         <f t="shared" ref="B124:B187" si="1">B123+1</f>
         <v>40</v>
@@ -14930,7 +15638,7 @@
       <c r="AU124" s="4"/>
       <c r="AV124" s="4"/>
     </row>
-    <row r="125" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B125" s="17">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -14975,7 +15683,7 @@
       <c r="AU125" s="4"/>
       <c r="AV125" s="4"/>
     </row>
-    <row r="126" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B126" s="17">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -15020,7 +15728,7 @@
       <c r="AU126" s="4"/>
       <c r="AV126" s="4"/>
     </row>
-    <row r="127" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B127" s="17">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -15065,7 +15773,7 @@
       <c r="AU127" s="4"/>
       <c r="AV127" s="4"/>
     </row>
-    <row r="128" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B128" s="17">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -15110,7 +15818,7 @@
       <c r="AU128" s="4"/>
       <c r="AV128" s="4"/>
     </row>
-    <row r="129" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B129" s="17">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -15155,7 +15863,7 @@
       <c r="AU129" s="4"/>
       <c r="AV129" s="4"/>
     </row>
-    <row r="130" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B130" s="17">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -15200,7 +15908,7 @@
       <c r="AU130" s="4"/>
       <c r="AV130" s="4"/>
     </row>
-    <row r="131" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B131" s="17">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -15245,7 +15953,7 @@
       <c r="AU131" s="4"/>
       <c r="AV131" s="4"/>
     </row>
-    <row r="132" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B132" s="17">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -15290,7 +15998,7 @@
       <c r="AU132" s="4"/>
       <c r="AV132" s="4"/>
     </row>
-    <row r="133" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B133" s="17">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -15335,7 +16043,7 @@
       <c r="AU133" s="4"/>
       <c r="AV133" s="4"/>
     </row>
-    <row r="134" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B134" s="17">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -15380,7 +16088,7 @@
       <c r="AU134" s="4"/>
       <c r="AV134" s="4"/>
     </row>
-    <row r="135" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -15399,7 +16107,7 @@
       <c r="AU135" s="4"/>
       <c r="AV135" s="4"/>
     </row>
-    <row r="136" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B136" s="17" t="s">
         <v>85</v>
       </c>
@@ -15427,7 +16135,7 @@
       <c r="AU136" s="4"/>
       <c r="AV136" s="4"/>
     </row>
-    <row r="137" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -15446,7 +16154,7 @@
       <c r="AU137" s="4"/>
       <c r="AV137" s="4"/>
     </row>
-    <row r="138" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -15465,7 +16173,7 @@
       <c r="AU138" s="4"/>
       <c r="AV138" s="4"/>
     </row>
-    <row r="139" spans="2:48" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:48" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B139" s="23" t="s">
         <v>100</v>
       </c>
@@ -15488,7 +16196,7 @@
       <c r="AU139" s="4"/>
       <c r="AV139" s="4"/>
     </row>
-    <row r="140" spans="2:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B140" s="22"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -15507,7 +16215,7 @@
       <c r="AU140" s="4"/>
       <c r="AV140" s="4"/>
     </row>
-    <row r="141" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B141" s="22" t="s">
         <v>102</v>
       </c>
@@ -15528,7 +16236,7 @@
       <c r="AU141" s="4"/>
       <c r="AV141" s="4"/>
     </row>
-    <row r="142" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B142" s="22" t="s">
         <v>103</v>
       </c>
@@ -15549,7 +16257,7 @@
       <c r="AU142" s="4"/>
       <c r="AV142" s="4"/>
     </row>
-    <row r="143" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B143" s="22" t="s">
         <v>104</v>
       </c>
@@ -15570,7 +16278,7 @@
       <c r="AU143" s="4"/>
       <c r="AV143" s="4"/>
     </row>
-    <row r="144" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B144" s="22" t="s">
         <v>105</v>
       </c>
@@ -15596,7 +16304,7 @@
       <c r="AU144" s="4"/>
       <c r="AV144" s="4"/>
     </row>
-    <row r="145" spans="2:48" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:48" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B145" s="21" t="s">
         <v>62</v>
       </c>
@@ -15631,7 +16339,7 @@
       <c r="AU145" s="4"/>
       <c r="AV145" s="4"/>
     </row>
-    <row r="146" spans="2:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -15655,7 +16363,7 @@
       <c r="AU146" s="4"/>
       <c r="AV146" s="4"/>
     </row>
-    <row r="147" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B147" s="17" t="s">
         <v>108</v>
       </c>
@@ -15690,7 +16398,7 @@
       <c r="AU147" s="4"/>
       <c r="AV147" s="4"/>
     </row>
-    <row r="148" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -15712,7 +16420,7 @@
       <c r="AU148" s="4"/>
       <c r="AV148" s="4"/>
     </row>
-    <row r="149" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B149" s="17">
         <v>51</v>
       </c>
@@ -15747,7 +16455,7 @@
       <c r="AU149" s="4"/>
       <c r="AV149" s="4"/>
     </row>
-    <row r="150" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B150" s="17">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -15783,7 +16491,7 @@
       <c r="AU150" s="4"/>
       <c r="AV150" s="4"/>
     </row>
-    <row r="151" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B151" s="17">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -15819,7 +16527,7 @@
       <c r="AU151" s="4"/>
       <c r="AV151" s="4"/>
     </row>
-    <row r="152" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B152" s="17">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -15855,7 +16563,7 @@
       <c r="AU152" s="4"/>
       <c r="AV152" s="4"/>
     </row>
-    <row r="153" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B153" s="17">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -15891,7 +16599,7 @@
       <c r="AU153" s="4"/>
       <c r="AV153" s="4"/>
     </row>
-    <row r="154" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B154" s="17">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -15927,7 +16635,7 @@
       <c r="AU154" s="4"/>
       <c r="AV154" s="4"/>
     </row>
-    <row r="155" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B155" s="17">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -15963,7 +16671,7 @@
       <c r="AU155" s="4"/>
       <c r="AV155" s="4"/>
     </row>
-    <row r="156" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B156" s="17">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -15999,7 +16707,7 @@
       <c r="AU156" s="4"/>
       <c r="AV156" s="4"/>
     </row>
-    <row r="157" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B157" s="17">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -16035,7 +16743,7 @@
       <c r="AU157" s="4"/>
       <c r="AV157" s="4"/>
     </row>
-    <row r="158" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B158" s="17">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -16071,7 +16779,7 @@
       <c r="AU158" s="4"/>
       <c r="AV158" s="4"/>
     </row>
-    <row r="159" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B159" s="17">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -16107,7 +16815,7 @@
       <c r="AU159" s="4"/>
       <c r="AV159" s="4"/>
     </row>
-    <row r="160" spans="2:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B160" s="17">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -16143,7 +16851,7 @@
       <c r="AU160" s="4"/>
       <c r="AV160" s="4"/>
     </row>
-    <row r="161" spans="1:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B161" s="17">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -16179,7 +16887,7 @@
       <c r="AU161" s="4"/>
       <c r="AV161" s="4"/>
     </row>
-    <row r="162" spans="1:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B162" s="17">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -16215,7 +16923,7 @@
       <c r="AU162" s="4"/>
       <c r="AV162" s="4"/>
     </row>
-    <row r="163" spans="1:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B163" s="17">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -16251,7 +16959,7 @@
       <c r="AU163" s="4"/>
       <c r="AV163" s="4"/>
     </row>
-    <row r="164" spans="1:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B164" s="17">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -16287,7 +16995,7 @@
       <c r="AU164" s="4"/>
       <c r="AV164" s="4"/>
     </row>
-    <row r="165" spans="1:48" ht="24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B165" s="17">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -16323,7 +17031,7 @@
       <c r="AU165" s="4"/>
       <c r="AV165" s="4"/>
     </row>
-    <row r="166" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B166" s="17">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -16359,7 +17067,7 @@
       <c r="AU166" s="4"/>
       <c r="AV166" s="4"/>
     </row>
-    <row r="167" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B167" s="17">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -16395,7 +17103,7 @@
       <c r="AU167" s="4"/>
       <c r="AV167" s="4"/>
     </row>
-    <row r="168" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B168" s="17">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -16431,7 +17139,7 @@
       <c r="AU168" s="4"/>
       <c r="AV168" s="4"/>
     </row>
-    <row r="169" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
       <c r="D169" s="11"/>
@@ -16468,7 +17176,7 @@
       <c r="AU169" s="4"/>
       <c r="AV169" s="4"/>
     </row>
-    <row r="170" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B170" s="17" t="s">
         <v>85</v>
       </c>
@@ -16514,7 +17222,7 @@
       <c r="AU170" s="4"/>
       <c r="AV170" s="4"/>
     </row>
-    <row r="171" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
       <c r="D171" s="11"/>
@@ -16562,7 +17270,7 @@
       <c r="AU171" s="4"/>
       <c r="AV171" s="4"/>
     </row>
-    <row r="172" spans="1:48" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:48" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="11"/>
@@ -16610,7 +17318,7 @@
       <c r="AU172" s="4"/>
       <c r="AV172" s="4"/>
     </row>
-    <row r="173" spans="1:48" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:48" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4"/>
       <c r="B173" s="23" t="s">
         <v>130</v>
@@ -16664,7 +17372,7 @@
       <c r="AU173" s="4"/>
       <c r="AV173" s="4"/>
     </row>
-    <row r="174" spans="1:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="22"/>
       <c r="C174" s="4"/>
@@ -16714,7 +17422,7 @@
       <c r="AU174" s="4"/>
       <c r="AV174" s="4"/>
     </row>
-    <row r="175" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="22" t="s">
         <v>131</v>
@@ -16766,7 +17474,7 @@
       <c r="AU175" s="4"/>
       <c r="AV175" s="4"/>
     </row>
-    <row r="176" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="22" t="s">
         <v>132</v>
@@ -16818,7 +17526,7 @@
       <c r="AU176" s="4"/>
       <c r="AV176" s="4"/>
     </row>
-    <row r="177" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="22" t="s">
         <v>133</v>
@@ -16870,7 +17578,7 @@
       <c r="AU177" s="4"/>
       <c r="AV177" s="4"/>
     </row>
-    <row r="178" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="22" t="s">
         <v>134</v>
@@ -16922,7 +17630,7 @@
       <c r="AU178" s="4"/>
       <c r="AV178" s="4"/>
     </row>
-    <row r="179" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4"/>
       <c r="B179" s="22"/>
       <c r="C179" s="4"/>
@@ -16972,7 +17680,7 @@
       <c r="AU179" s="4"/>
       <c r="AV179" s="4"/>
     </row>
-    <row r="180" spans="1:48" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:48" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B180" s="21" t="s">
         <v>62</v>
       </c>
@@ -17030,7 +17738,7 @@
       <c r="AU180" s="4"/>
       <c r="AV180" s="4"/>
     </row>
-    <row r="181" spans="1:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -17078,7 +17786,7 @@
       <c r="AU181" s="4"/>
       <c r="AV181" s="4"/>
     </row>
-    <row r="182" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B182" s="17" t="s">
         <v>136</v>
       </c>
@@ -17136,7 +17844,7 @@
       <c r="AU182" s="4"/>
       <c r="AV182" s="4"/>
     </row>
-    <row r="183" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -17183,7 +17891,7 @@
       <c r="AU183" s="4"/>
       <c r="AV183" s="4"/>
     </row>
-    <row r="184" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B184" s="17">
         <v>71</v>
       </c>
@@ -17241,7 +17949,7 @@
       <c r="AU184" s="4"/>
       <c r="AV184" s="4"/>
     </row>
-    <row r="185" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B185" s="17">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -17300,7 +18008,7 @@
       <c r="AU185" s="4"/>
       <c r="AV185" s="4"/>
     </row>
-    <row r="186" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B186" s="17">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -17359,7 +18067,7 @@
       <c r="AU186" s="4"/>
       <c r="AV186" s="4"/>
     </row>
-    <row r="187" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B187" s="17">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -17418,7 +18126,7 @@
       <c r="AU187" s="4"/>
       <c r="AV187" s="4"/>
     </row>
-    <row r="188" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B188" s="17">
         <f t="shared" ref="B188:B213" si="2">B187+1</f>
         <v>75</v>
@@ -17477,7 +18185,7 @@
       <c r="AU188" s="4"/>
       <c r="AV188" s="4"/>
     </row>
-    <row r="189" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B189" s="17">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -17536,7 +18244,7 @@
       <c r="AU189" s="4"/>
       <c r="AV189" s="4"/>
     </row>
-    <row r="190" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B190" s="17">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -17595,7 +18303,7 @@
       <c r="AU190" s="4"/>
       <c r="AV190" s="4"/>
     </row>
-    <row r="191" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B191" s="17">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -17654,7 +18362,7 @@
       <c r="AU191" s="4"/>
       <c r="AV191" s="4"/>
     </row>
-    <row r="192" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B192" s="17">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -17713,7 +18421,7 @@
       <c r="AU192" s="4"/>
       <c r="AV192" s="4"/>
     </row>
-    <row r="193" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B193" s="17">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -17772,7 +18480,7 @@
       <c r="AU193" s="4"/>
       <c r="AV193" s="4"/>
     </row>
-    <row r="194" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B194" s="17">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -17831,7 +18539,7 @@
       <c r="AU194" s="4"/>
       <c r="AV194" s="4"/>
     </row>
-    <row r="195" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B195" s="17">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -17890,7 +18598,7 @@
       <c r="AU195" s="4"/>
       <c r="AV195" s="4"/>
     </row>
-    <row r="196" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B196" s="17">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -17949,7 +18657,7 @@
       <c r="AU196" s="4"/>
       <c r="AV196" s="4"/>
     </row>
-    <row r="197" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B197" s="17">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -18008,7 +18716,7 @@
       <c r="AU197" s="4"/>
       <c r="AV197" s="4"/>
     </row>
-    <row r="198" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B198" s="17">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -18067,7 +18775,7 @@
       <c r="AU198" s="4"/>
       <c r="AV198" s="4"/>
     </row>
-    <row r="199" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B199" s="17">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -18126,7 +18834,7 @@
       <c r="AU199" s="4"/>
       <c r="AV199" s="4"/>
     </row>
-    <row r="200" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B200" s="17">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -18185,7 +18893,7 @@
       <c r="AU200" s="4"/>
       <c r="AV200" s="4"/>
     </row>
-    <row r="201" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B201" s="17">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -18244,7 +18952,7 @@
       <c r="AU201" s="4"/>
       <c r="AV201" s="4"/>
     </row>
-    <row r="202" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B202" s="17">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -18303,7 +19011,7 @@
       <c r="AU202" s="4"/>
       <c r="AV202" s="4"/>
     </row>
-    <row r="203" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B203" s="17">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -18362,7 +19070,7 @@
       <c r="AU203" s="4"/>
       <c r="AV203" s="4"/>
     </row>
-    <row r="204" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B204" s="17">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -18421,7 +19129,7 @@
       <c r="AU204" s="4"/>
       <c r="AV204" s="4"/>
     </row>
-    <row r="205" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B205" s="17">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -18480,7 +19188,7 @@
       <c r="AU205" s="4"/>
       <c r="AV205" s="4"/>
     </row>
-    <row r="206" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B206" s="17">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -18539,7 +19247,7 @@
       <c r="AU206" s="4"/>
       <c r="AV206" s="4"/>
     </row>
-    <row r="207" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B207" s="17">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -18598,7 +19306,7 @@
       <c r="AU207" s="4"/>
       <c r="AV207" s="4"/>
     </row>
-    <row r="208" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B208" s="17">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -18657,7 +19365,7 @@
       <c r="AU208" s="4"/>
       <c r="AV208" s="4"/>
     </row>
-    <row r="209" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B209" s="17">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -18716,7 +19424,7 @@
       <c r="AU209" s="4"/>
       <c r="AV209" s="4"/>
     </row>
-    <row r="210" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B210" s="17">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -18775,7 +19483,7 @@
       <c r="AU210" s="4"/>
       <c r="AV210" s="4"/>
     </row>
-    <row r="211" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B211" s="17">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -18834,7 +19542,7 @@
       <c r="AU211" s="4"/>
       <c r="AV211" s="4"/>
     </row>
-    <row r="212" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B212" s="17">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -18893,7 +19601,7 @@
       <c r="AU212" s="4"/>
       <c r="AV212" s="4"/>
     </row>
-    <row r="213" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B213" s="17">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -18952,7 +19660,7 @@
       <c r="AU213" s="4"/>
       <c r="AV213" s="4"/>
     </row>
-    <row r="214" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
       <c r="D214" s="11"/>
@@ -19000,7 +19708,7 @@
       <c r="AU214" s="4"/>
       <c r="AV214" s="4"/>
     </row>
-    <row r="215" spans="2:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B215" s="17" t="s">
         <v>85</v>
       </c>
@@ -19017,31 +19725,31 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
     </row>
-    <row r="216" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
     </row>
-    <row r="217" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
     </row>
-    <row r="218" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
     </row>
-    <row r="219" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
     </row>
-    <row r="220" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
     </row>
-    <row r="221" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
     </row>
-    <row r="222" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
     </row>
@@ -19100,14 +19808,14 @@
       <selection activeCell="AK24" sqref="AK24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="29" width="4.42578125" style="89" customWidth="1"/>
-    <col min="30" max="30" width="3.42578125" customWidth="1"/>
-    <col min="32" max="36" width="2.7109375" customWidth="1"/>
+    <col min="1" max="29" width="4.44140625" style="89" customWidth="1"/>
+    <col min="30" max="30" width="3.44140625" customWidth="1"/>
+    <col min="32" max="36" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="92"/>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -19143,7 +19851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="92"/>
       <c r="B2" s="92"/>
       <c r="C2" s="93"/>
@@ -19178,16 +19886,16 @@
       <c r="AD2">
         <v>2</v>
       </c>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="137"/>
-      <c r="AJ2" s="137"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
       <c r="AK2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="92"/>
       <c r="B3" s="92"/>
       <c r="C3" s="93"/>
@@ -19224,13 +19932,13 @@
       <c r="AD3">
         <v>3</v>
       </c>
-      <c r="AF3" s="138"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
-      <c r="AJ3" s="137"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="105"/>
+      <c r="AI3" s="105"/>
+      <c r="AJ3" s="105"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="92"/>
       <c r="B4" s="92"/>
       <c r="C4" s="93"/>
@@ -19263,15 +19971,15 @@
       <c r="AD4">
         <v>4</v>
       </c>
-      <c r="AF4" s="137"/>
-      <c r="AG4" s="137"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
       <c r="AH4" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="AI4" s="137"/>
-      <c r="AJ4" s="137"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="105"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="92"/>
       <c r="B5" s="92"/>
       <c r="C5" s="93"/>
@@ -19306,13 +20014,13 @@
       <c r="AD5">
         <v>5</v>
       </c>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-    </row>
-    <row r="6" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AF5" s="105"/>
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="105"/>
+      <c r="AI5" s="105"/>
+      <c r="AJ5" s="105"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="92"/>
       <c r="B6" s="92"/>
       <c r="C6" s="94" t="s">
@@ -19365,13 +20073,13 @@
       <c r="AD6">
         <v>6</v>
       </c>
-      <c r="AF6" s="137"/>
-      <c r="AG6" s="137"/>
-      <c r="AH6" s="137"/>
-      <c r="AI6" s="137"/>
-      <c r="AJ6" s="137"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="105"/>
+      <c r="AJ6" s="105"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="92"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
@@ -19441,7 +20149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="93"/>
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
@@ -19517,7 +20225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="93"/>
       <c r="B9" s="95"/>
       <c r="C9" s="95"/>
@@ -19573,7 +20281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="94" t="s">
         <v>167</v>
       </c>
@@ -19626,16 +20334,16 @@
       <c r="AD10">
         <v>10</v>
       </c>
-      <c r="AF10" s="137"/>
-      <c r="AG10" s="137"/>
-      <c r="AH10" s="137"/>
-      <c r="AI10" s="137"/>
-      <c r="AJ10" s="137"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="105"/>
+      <c r="AH10" s="105"/>
+      <c r="AI10" s="105"/>
+      <c r="AJ10" s="105"/>
       <c r="AK10" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="93"/>
       <c r="B11" s="95"/>
       <c r="C11" s="95"/>
@@ -19700,13 +20408,13 @@
       <c r="AD11">
         <v>11</v>
       </c>
-      <c r="AF11" s="138"/>
-      <c r="AG11" s="138"/>
-      <c r="AH11" s="137"/>
-      <c r="AI11" s="137"/>
-      <c r="AJ11" s="137"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="105"/>
+      <c r="AJ11" s="105"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="93"/>
       <c r="B12" s="95"/>
       <c r="C12" s="95"/>
@@ -19771,15 +20479,15 @@
       <c r="AD12">
         <v>12</v>
       </c>
-      <c r="AF12" s="137"/>
-      <c r="AG12" s="137"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105"/>
       <c r="AH12" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="AI12" s="137"/>
-      <c r="AJ12" s="137"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI12" s="105"/>
+      <c r="AJ12" s="105"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="93"/>
       <c r="B13" s="95"/>
       <c r="C13" s="95"/>
@@ -19844,13 +20552,13 @@
       <c r="AD13">
         <v>13</v>
       </c>
-      <c r="AF13" s="137"/>
-      <c r="AG13" s="137"/>
-      <c r="AH13" s="137"/>
-      <c r="AI13" s="137"/>
-      <c r="AJ13" s="137"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="105"/>
+      <c r="AH13" s="105"/>
+      <c r="AI13" s="105"/>
+      <c r="AJ13" s="105"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="93"/>
       <c r="B14" s="95"/>
       <c r="C14" s="95"/>
@@ -19915,13 +20623,13 @@
       <c r="AD14">
         <v>14</v>
       </c>
-      <c r="AF14" s="137"/>
-      <c r="AG14" s="137"/>
-      <c r="AH14" s="137"/>
-      <c r="AI14" s="137"/>
-      <c r="AJ14" s="137"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="105"/>
+      <c r="AH14" s="105"/>
+      <c r="AI14" s="105"/>
+      <c r="AJ14" s="105"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="93"/>
       <c r="B15" s="95"/>
       <c r="C15" s="95"/>
@@ -19997,7 +20705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="93"/>
       <c r="B16" s="95"/>
       <c r="C16" s="95"/>
@@ -20041,7 +20749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="93"/>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -20095,7 +20803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" s="93"/>
       <c r="B18" s="93"/>
       <c r="C18" s="93"/>
@@ -20148,14 +20856,14 @@
       <c r="AD18">
         <v>18</v>
       </c>
-      <c r="AG18" s="139"/>
-      <c r="AH18" s="140"/>
-      <c r="AI18" s="141"/>
+      <c r="AG18" s="107"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="109"/>
       <c r="AK18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="92"/>
       <c r="B19" s="92"/>
       <c r="C19" s="94" t="s">
@@ -20212,13 +20920,13 @@
       <c r="AD19">
         <v>19</v>
       </c>
-      <c r="AG19" s="142"/>
+      <c r="AG19" s="110"/>
       <c r="AH19" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="AI19" s="143"/>
-    </row>
-    <row r="20" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI19" s="111"/>
+    </row>
+    <row r="20" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="92"/>
       <c r="B20" s="92"/>
       <c r="C20" s="93"/>
@@ -20275,11 +20983,11 @@
       <c r="AD20">
         <v>20</v>
       </c>
-      <c r="AG20" s="144"/>
-      <c r="AH20" s="145"/>
-      <c r="AI20" s="146"/>
-    </row>
-    <row r="21" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AG20" s="112"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="114"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" s="92"/>
       <c r="B21" s="92"/>
       <c r="C21" s="93"/>
@@ -20329,7 +21037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="92"/>
       <c r="B22" s="92"/>
       <c r="C22" s="93"/>
@@ -20393,7 +21101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="92"/>
       <c r="B23" s="92"/>
       <c r="C23" s="93"/>
@@ -20465,7 +21173,7 @@
       <c r="AH23" s="72"/>
       <c r="AI23" s="73"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="92"/>
       <c r="B24" s="92"/>
       <c r="C24" s="93"/>
@@ -20534,7 +21242,7 @@
       </c>
       <c r="AI24" s="75"/>
     </row>
-    <row r="25" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="92"/>
       <c r="B25" s="92"/>
       <c r="C25" s="93"/>
@@ -20600,7 +21308,7 @@
       <c r="AH25" s="77"/>
       <c r="AI25" s="78"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="92"/>
       <c r="B26" s="92"/>
       <c r="C26" s="93"/>
@@ -20652,7 +21360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="92"/>
       <c r="B27" s="92"/>
       <c r="C27" s="93"/>
@@ -20690,7 +21398,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="92"/>
       <c r="B28" s="92"/>
       <c r="C28" s="93"/>
@@ -20726,7 +21434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="92"/>
       <c r="B29" s="92"/>
       <c r="C29" s="93"/>
@@ -20760,7 +21468,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="92"/>
       <c r="B30" s="92"/>
       <c r="C30" s="92"/>
@@ -20796,7 +21504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="92"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
@@ -20832,7 +21540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="92"/>
       <c r="B32" s="92"/>
       <c r="C32" s="92"/>
@@ -20868,7 +21576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="92"/>
       <c r="B33" s="92"/>
       <c r="C33" s="92"/>
@@ -20902,7 +21610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="89" t="s">
         <v>178</v>
       </c>

--- a/ExcelEsport/FMWC_Examples/Bear Island - Harry Seiders - with Answers.xlsx
+++ b/ExcelEsport/FMWC_Examples/Bear Island - Harry Seiders - with Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\ExcelEsport\FMWC_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2688855E-76F1-4550-AC19-8C22852FCE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8310AC-01CA-41A9-8513-C32F3928BFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
   </bookViews>
@@ -39,8 +39,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -51,16 +52,40 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="213">
   <si>
     <t>Bear Island</t>
   </si>
@@ -776,6 +801,12 @@
   <si>
     <t>Profit</t>
   </si>
+  <si>
+    <t>Bear Treat</t>
+  </si>
+  <si>
+    <t>Treat Value</t>
+  </si>
 </sst>
 </file>
 
@@ -963,7 +994,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1049,6 +1080,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF001838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1946,7 +1983,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2240,6 +2277,9 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2336,9 +2376,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2383,9 +2421,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>247303</xdr:colOff>
+      <xdr:colOff>251113</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>324825</xdr:rowOff>
+      <xdr:rowOff>321015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2429,7 +2467,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>1939652</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>359004</xdr:rowOff>
+      <xdr:rowOff>362814</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2590,6 +2628,72 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>13</v>
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>13</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2891,8 +2995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1BDF3C-7CF1-4670-8742-2CB86BCAA1B5}">
   <dimension ref="A1:AV222"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N79" sqref="N79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A101" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2911,7 +3015,8 @@
     <col min="12" max="12" width="7" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="32.21875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="4.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="28.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" style="1" customWidth="1"/>
     <col min="19" max="28" width="4.88671875" style="1" customWidth="1"/>
@@ -2948,19 +3053,19 @@
       <c r="AV1" s="4"/>
     </row>
     <row r="2" spans="2:48" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
       <c r="N2" s="44" t="s">
         <v>1</v>
       </c>
@@ -3059,19 +3164,19 @@
       <c r="AV8" s="4"/>
     </row>
     <row r="9" spans="2:48" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="138"/>
-      <c r="K9" s="145" t="s">
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="139"/>
+      <c r="K9" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="145"/>
+      <c r="L9" s="146"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
@@ -3097,15 +3202,15 @@
       <c r="AV9" s="4"/>
     </row>
     <row r="10" spans="2:48" ht="14.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="130"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
@@ -3132,13 +3237,13 @@
       <c r="AV10" s="4"/>
     </row>
     <row r="11" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="130"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="132"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="133"/>
       <c r="K11" s="90" t="s">
         <v>6</v>
       </c>
@@ -3179,13 +3284,13 @@
       <c r="AV11" s="4"/>
     </row>
     <row r="12" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="132"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="133"/>
       <c r="K12" s="79" t="s">
         <v>7</v>
       </c>
@@ -3216,13 +3321,13 @@
       <c r="AV12" s="4"/>
     </row>
     <row r="13" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="132"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="133"/>
       <c r="K13" s="58" t="s">
         <v>8</v>
       </c>
@@ -3263,13 +3368,13 @@
       <c r="AV13" s="4"/>
     </row>
     <row r="14" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="132"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="133"/>
       <c r="K14" s="58" t="s">
         <v>9</v>
       </c>
@@ -3310,13 +3415,13 @@
       <c r="AV14" s="4"/>
     </row>
     <row r="15" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="132"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="133"/>
       <c r="K15" s="58" t="s">
         <v>10</v>
       </c>
@@ -3350,13 +3455,13 @@
       <c r="AV15" s="4"/>
     </row>
     <row r="16" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="130"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="132"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="133"/>
       <c r="K16" s="58" t="s">
         <v>11</v>
       </c>
@@ -3390,13 +3495,13 @@
       <c r="AV16" s="4"/>
     </row>
     <row r="17" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="132"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="133"/>
       <c r="K17" s="58" t="s">
         <v>12</v>
       </c>
@@ -3427,13 +3532,13 @@
       <c r="AV17" s="4"/>
     </row>
     <row r="18" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="133"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
       <c r="K18" s="58" t="s">
         <v>13</v>
       </c>
@@ -3482,15 +3587,15 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" s="58" t="s">
@@ -3877,15 +3982,15 @@
       <c r="AV29" s="4"/>
     </row>
     <row r="30" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="126" t="s">
+      <c r="B30" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
       <c r="K30" s="58" t="s">
@@ -4199,14 +4304,14 @@
       <c r="E41" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="123" t="s">
+      <c r="G41" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="126"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
@@ -4242,14 +4347,18 @@
         <f>IF(ISBLANK(E42),0,IF(E42=Answers!E42,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G42" s="139" t="s">
+      <c r="G42" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="142"/>
+      <c r="N42" s="1" t="b" cm="1">
+        <f t="array" ref="N42:N44">D33:D35=I113</f>
+        <v>1</v>
+      </c>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
@@ -4285,14 +4394,17 @@
         <f>IF(ISBLANK(E43),0,IF(E43=Answers!E43,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G43" s="142" t="s">
+      <c r="G43" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143"/>
-      <c r="L43" s="144"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="144"/>
+      <c r="L43" s="145"/>
+      <c r="N43" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
@@ -4328,14 +4440,17 @@
         <f>IF(ISBLANK(E44),0,IF(E44=Answers!E44,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G44" s="120" t="s">
+      <c r="G44" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="123"/>
+      <c r="N44" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
@@ -4467,9 +4582,9 @@
       <c r="AV49" s="4"/>
     </row>
     <row r="50" spans="2:48" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="K50" s="117">
+      <c r="K50" s="118">
         <f>SUMPRODUCT(D:D,F:F)</f>
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AK50" s="4"/>
       <c r="AL50" s="4"/>
@@ -4488,7 +4603,7 @@
       <c r="B51" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K51" s="118"/>
+      <c r="K51" s="119"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="AK51" s="4"/>
@@ -4507,7 +4622,7 @@
     <row r="52" spans="2:48" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="22"/>
       <c r="G52" s="26"/>
-      <c r="K52" s="118"/>
+      <c r="K52" s="119"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="AK52" s="4"/>
@@ -4542,7 +4657,7 @@
       <c r="H53" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="K53" s="119"/>
+      <c r="K53" s="120"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="AK53" s="4"/>
@@ -4667,7 +4782,7 @@
         <f>IF(ISBLANK(E57),0,IF(E57=Answers!E57,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G57" s="147" t="s">
+      <c r="G57" s="115" t="s">
         <v>22</v>
       </c>
       <c r="H57" s="25">
@@ -4719,7 +4834,7 @@
         <f>IF(ISBLANK(E58),0,IF(E58=Answers!E58,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G58" s="147" t="s">
+      <c r="G58" s="115" t="s">
         <v>31</v>
       </c>
       <c r="H58" s="25">
@@ -4770,7 +4885,7 @@
         <f>IF(ISBLANK(E59),0,IF(E59=Answers!E59,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G59" s="147" t="s">
+      <c r="G59" s="115" t="s">
         <v>34</v>
       </c>
       <c r="H59" s="25">
@@ -4821,7 +4936,7 @@
         <f>IF(ISBLANK(E60),0,IF(E60=Answers!E60,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G60" s="147" t="s">
+      <c r="G60" s="115" t="s">
         <v>82</v>
       </c>
       <c r="H60" s="25">
@@ -4872,7 +4987,7 @@
         <f>IF(ISBLANK(E61),0,IF(E61=Answers!E61,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G61" s="147" t="s">
+      <c r="G61" s="115" t="s">
         <v>28</v>
       </c>
       <c r="H61" s="25">
@@ -4923,7 +5038,7 @@
         <f>IF(ISBLANK(E62),0,IF(E62=Answers!E62,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G62" s="147" t="s">
+      <c r="G62" s="115" t="s">
         <v>83</v>
       </c>
       <c r="H62" s="25">
@@ -4975,7 +5090,7 @@
         <f>IF(ISBLANK(E63),0,IF(E63=Answers!E63,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G63" s="147" t="s">
+      <c r="G63" s="115" t="s">
         <v>34</v>
       </c>
       <c r="H63" s="25">
@@ -5026,7 +5141,7 @@
         <f>IF(ISBLANK(E64),0,IF(E64=Answers!E64,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G64" s="147" t="s">
+      <c r="G64" s="115" t="s">
         <v>37</v>
       </c>
       <c r="H64" s="25">
@@ -5077,7 +5192,7 @@
         <f>IF(ISBLANK(E65),0,IF(E65=Answers!E65,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G65" s="147" t="s">
+      <c r="G65" s="115" t="s">
         <v>84</v>
       </c>
       <c r="H65" s="25">
@@ -5128,7 +5243,7 @@
         <f>IF(ISBLANK(E66),0,IF(E66=Answers!E66,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G66" s="147" t="s">
+      <c r="G66" s="115" t="s">
         <v>83</v>
       </c>
       <c r="H66" s="25">
@@ -5488,7 +5603,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="J80" s="1" t="e">
-        <f t="shared" ref="J80:J100" si="6">H80*_xlfn.XLOOKUP(G80,$N$56:$N$66,$O$56:$O$66)</f>
+        <f t="shared" ref="J80" si="6">H80*_xlfn.XLOOKUP(G80,$N$56:$N$66,$O$56:$O$66)</f>
         <v>#N/A</v>
       </c>
       <c r="K80" s="1" t="e">
@@ -6768,6 +6883,18 @@
       <c r="I111" s="60" t="s">
         <v>98</v>
       </c>
+      <c r="K111" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="AB111" s="4"/>
       <c r="AC111" s="4"/>
       <c r="AD111" s="4"/>
@@ -6843,6 +6970,25 @@
       <c r="I113" s="25" t="s">
         <v>50</v>
       </c>
+      <c r="J113" s="148"/>
+      <c r="K113" s="148">
+        <f>H113*_xlfn.XLOOKUP(G113,$N$56:$N$67,$O$56:$O$67)</f>
+        <v>600</v>
+      </c>
+      <c r="L113" s="148"/>
+      <c r="M113" s="148">
+        <f>H113*_xlfn.XLOOKUP(G113,$Q$23:$Q$34,$O$23:$O$34)</f>
+        <v>450</v>
+      </c>
+      <c r="N113" s="148" t="str" cm="1">
+        <f t="array" ref="N113">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I113))</f>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="O113" s="148"/>
+      <c r="P113" s="148">
+        <f>H113*_xlfn.XLOOKUP(N113,$K$12:$K$36,$L$12:$L$36)</f>
+        <v>36</v>
+      </c>
       <c r="AB113" s="4"/>
       <c r="AC113" s="4"/>
       <c r="AD113" s="4"/>
@@ -6870,6 +7016,18 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
+      <c r="K114" s="148" t="e">
+        <f t="shared" ref="K114:K134" si="10">H114*_xlfn.XLOOKUP(G114,$N$56:$N$67,$O$56:$O$67)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N114" s="148" t="e" cm="1" vm="1">
+        <f t="array" ref="N114">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I114))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P114" s="148" t="e" vm="2">
+        <f t="shared" ref="P114:P135" si="11">H114*_xlfn.XLOOKUP(N114,$K$12:$K$36,$L$12:$L$36)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="AB114" s="4"/>
       <c r="AC114" s="4"/>
       <c r="AD114" s="4"/>
@@ -6902,10 +7060,13 @@
       <c r="D115" s="18">
         <v>10</v>
       </c>
-      <c r="E115" s="19"/>
+      <c r="E115" s="19">
+        <f t="shared" ref="E115:E119" si="12">K115-P115</f>
+        <v>1088</v>
+      </c>
       <c r="F115" s="37">
         <f>IF(ISBLANK(E115),0,IF(E115=Answers!E115,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>22</v>
@@ -6915,6 +7076,18 @@
       </c>
       <c r="I115" s="25" t="s">
         <v>56</v>
+      </c>
+      <c r="K115" s="148">
+        <f t="shared" si="10"/>
+        <v>1120</v>
+      </c>
+      <c r="N115" s="148" t="str" cm="1">
+        <f t="array" ref="N115">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I115))</f>
+        <v>Raspberries</v>
+      </c>
+      <c r="P115" s="148">
+        <f t="shared" si="11"/>
+        <v>32</v>
       </c>
       <c r="AB115" s="4"/>
       <c r="AC115" s="4"/>
@@ -6949,10 +7122,13 @@
       <c r="D116" s="18">
         <v>10</v>
       </c>
-      <c r="E116" s="19"/>
+      <c r="E116" s="19">
+        <f t="shared" si="12"/>
+        <v>459</v>
+      </c>
       <c r="F116" s="37">
         <f>IF(ISBLANK(E116),0,IF(E116=Answers!E116,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="25" t="s">
         <v>31</v>
@@ -6962,6 +7138,18 @@
       </c>
       <c r="I116" s="25" t="s">
         <v>53</v>
+      </c>
+      <c r="K116" s="148">
+        <f t="shared" si="10"/>
+        <v>480</v>
+      </c>
+      <c r="N116" s="148" t="str" cm="1">
+        <f t="array" ref="N116">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I116))</f>
+        <v>Bamboo</v>
+      </c>
+      <c r="P116" s="148">
+        <f t="shared" si="11"/>
+        <v>21</v>
       </c>
       <c r="AB116" s="4"/>
       <c r="AC116" s="4"/>
@@ -6996,10 +7184,13 @@
       <c r="D117" s="18">
         <v>10</v>
       </c>
-      <c r="E117" s="19"/>
+      <c r="E117" s="19">
+        <f t="shared" si="12"/>
+        <v>1862</v>
+      </c>
       <c r="F117" s="37">
         <f>IF(ISBLANK(E117),0,IF(E117=Answers!E117,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" s="25" t="s">
         <v>34</v>
@@ -7009,6 +7200,18 @@
       </c>
       <c r="I117" s="25" t="s">
         <v>50</v>
+      </c>
+      <c r="K117" s="148">
+        <f t="shared" si="10"/>
+        <v>2030</v>
+      </c>
+      <c r="N117" s="148" t="str" cm="1">
+        <f t="array" ref="N117">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I117))</f>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="P117" s="148">
+        <f>H117*_xlfn.XLOOKUP(N117,$K$12:$K$36,$L$12:$L$36)</f>
+        <v>168</v>
       </c>
       <c r="AB117" s="4"/>
       <c r="AC117" s="4"/>
@@ -7043,10 +7246,13 @@
       <c r="D118" s="18">
         <v>10</v>
       </c>
-      <c r="E118" s="19"/>
+      <c r="E118" s="19">
+        <f t="shared" si="12"/>
+        <v>1188</v>
+      </c>
       <c r="F118" s="37">
         <f>IF(ISBLANK(E118),0,IF(E118=Answers!E118,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" s="25" t="s">
         <v>82</v>
@@ -7056,6 +7262,18 @@
       </c>
       <c r="I118" s="25" t="s">
         <v>50</v>
+      </c>
+      <c r="K118" s="148">
+        <f t="shared" si="10"/>
+        <v>1260</v>
+      </c>
+      <c r="N118" s="148" t="str" cm="1">
+        <f t="array" ref="N118">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I118))</f>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="P118" s="148">
+        <f t="shared" si="11"/>
+        <v>72</v>
       </c>
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
@@ -7090,10 +7308,13 @@
       <c r="D119" s="18">
         <v>10</v>
       </c>
-      <c r="E119" s="19"/>
+      <c r="E119" s="19">
+        <f t="shared" si="12"/>
+        <v>1057</v>
+      </c>
       <c r="F119" s="37">
         <f>IF(ISBLANK(E119),0,IF(E119=Answers!E119,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="25" t="s">
         <v>28</v>
@@ -7103,6 +7324,18 @@
       </c>
       <c r="I119" s="25" t="s">
         <v>56</v>
+      </c>
+      <c r="K119" s="148">
+        <f t="shared" si="10"/>
+        <v>1085</v>
+      </c>
+      <c r="N119" s="148" t="str" cm="1">
+        <f t="array" ref="N119">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I119))</f>
+        <v>Raspberries</v>
+      </c>
+      <c r="P119" s="148">
+        <f t="shared" si="11"/>
+        <v>28</v>
       </c>
       <c r="AB119" s="4"/>
       <c r="AC119" s="4"/>
@@ -7137,10 +7370,13 @@
       <c r="D120" s="18">
         <v>10</v>
       </c>
-      <c r="E120" s="19"/>
+      <c r="E120" s="19">
+        <f t="shared" ref="E120:E133" si="13">K120-P120</f>
+        <v>1464</v>
+      </c>
       <c r="F120" s="37">
         <f>IF(ISBLANK(E120),0,IF(E120=Answers!E120,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" s="25" t="s">
         <v>83</v>
@@ -7150,6 +7386,18 @@
       </c>
       <c r="I120" s="25" t="s">
         <v>53</v>
+      </c>
+      <c r="K120" s="148">
+        <f t="shared" si="10"/>
+        <v>1520</v>
+      </c>
+      <c r="N120" s="148" t="str" cm="1">
+        <f t="array" ref="N120">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I120))</f>
+        <v>Bamboo</v>
+      </c>
+      <c r="P120" s="148">
+        <f t="shared" si="11"/>
+        <v>56</v>
       </c>
       <c r="AB120" s="4"/>
       <c r="AC120" s="4"/>
@@ -7184,10 +7432,13 @@
       <c r="D121" s="18">
         <v>10</v>
       </c>
-      <c r="E121" s="19"/>
+      <c r="E121" s="19">
+        <f t="shared" si="13"/>
+        <v>931</v>
+      </c>
       <c r="F121" s="37">
         <f>IF(ISBLANK(E121),0,IF(E121=Answers!E121,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" s="25" t="s">
         <v>34</v>
@@ -7197,6 +7448,18 @@
       </c>
       <c r="I121" s="25" t="s">
         <v>50</v>
+      </c>
+      <c r="K121" s="148">
+        <f t="shared" si="10"/>
+        <v>1015</v>
+      </c>
+      <c r="N121" s="148" t="str" cm="1">
+        <f t="array" ref="N121">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I121))</f>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="P121" s="148">
+        <f t="shared" si="11"/>
+        <v>84</v>
       </c>
       <c r="AB121" s="4"/>
       <c r="AC121" s="4"/>
@@ -7231,10 +7494,13 @@
       <c r="D122" s="18">
         <v>10</v>
       </c>
-      <c r="E122" s="19"/>
+      <c r="E122" s="19">
+        <f t="shared" si="13"/>
+        <v>1422</v>
+      </c>
       <c r="F122" s="37">
         <f>IF(ISBLANK(E122),0,IF(E122=Answers!E122,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="25" t="s">
         <v>37</v>
@@ -7244,6 +7510,18 @@
       </c>
       <c r="I122" s="25" t="s">
         <v>50</v>
+      </c>
+      <c r="K122" s="148">
+        <f t="shared" si="10"/>
+        <v>1530</v>
+      </c>
+      <c r="N122" s="148" t="str" cm="1">
+        <f t="array" ref="N122">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I122))</f>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="P122" s="148">
+        <f t="shared" si="11"/>
+        <v>108</v>
       </c>
       <c r="AB122" s="4"/>
       <c r="AC122" s="4"/>
@@ -7269,7 +7547,7 @@
     </row>
     <row r="123" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B123" s="17">
-        <f t="shared" ref="B123:B188" si="10">B122+1</f>
+        <f t="shared" ref="B123:B188" si="14">B122+1</f>
         <v>39</v>
       </c>
       <c r="C123" s="17">
@@ -7278,10 +7556,13 @@
       <c r="D123" s="18">
         <v>10</v>
       </c>
-      <c r="E123" s="19"/>
+      <c r="E123" s="19">
+        <f t="shared" si="13"/>
+        <v>1692</v>
+      </c>
       <c r="F123" s="37">
         <f>IF(ISBLANK(E123),0,IF(E123=Answers!E123,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="25" t="s">
         <v>84</v>
@@ -7291,6 +7572,18 @@
       </c>
       <c r="I123" s="25" t="s">
         <v>53</v>
+      </c>
+      <c r="K123" s="148">
+        <f t="shared" si="10"/>
+        <v>1755</v>
+      </c>
+      <c r="N123" s="148" t="str" cm="1">
+        <f t="array" ref="N123">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I123))</f>
+        <v>Bamboo</v>
+      </c>
+      <c r="P123" s="148">
+        <f t="shared" si="11"/>
+        <v>63</v>
       </c>
       <c r="AB123" s="4"/>
       <c r="AC123" s="4"/>
@@ -7316,7 +7609,7 @@
     </row>
     <row r="124" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B124" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="C124" s="17">
@@ -7325,10 +7618,13 @@
       <c r="D124" s="18">
         <v>10</v>
       </c>
-      <c r="E124" s="19"/>
+      <c r="E124" s="19">
+        <f t="shared" si="13"/>
+        <v>1302</v>
+      </c>
       <c r="F124" s="37">
         <f>IF(ISBLANK(E124),0,IF(E124=Answers!E124,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="25" t="s">
         <v>83</v>
@@ -7338,6 +7634,18 @@
       </c>
       <c r="I124" s="25" t="s">
         <v>56</v>
+      </c>
+      <c r="K124" s="148">
+        <f t="shared" si="10"/>
+        <v>1330</v>
+      </c>
+      <c r="N124" s="148" t="str" cm="1">
+        <f t="array" ref="N124">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I124))</f>
+        <v>Raspberries</v>
+      </c>
+      <c r="P124" s="148">
+        <f t="shared" si="11"/>
+        <v>28</v>
       </c>
       <c r="AB124" s="4"/>
       <c r="AC124" s="4"/>
@@ -7363,7 +7671,7 @@
     </row>
     <row r="125" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B125" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="C125" s="17">
@@ -7372,10 +7680,13 @@
       <c r="D125" s="18">
         <v>10</v>
       </c>
-      <c r="E125" s="19"/>
+      <c r="E125" s="19">
+        <f t="shared" si="13"/>
+        <v>2013</v>
+      </c>
       <c r="F125" s="37">
         <f>IF(ISBLANK(E125),0,IF(E125=Answers!E125,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" s="25" t="s">
         <v>84</v>
@@ -7385,6 +7696,18 @@
       </c>
       <c r="I125" s="25" t="s">
         <v>50</v>
+      </c>
+      <c r="K125" s="148">
+        <f t="shared" si="10"/>
+        <v>2145</v>
+      </c>
+      <c r="N125" s="148" t="str" cm="1">
+        <f t="array" ref="N125">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I125))</f>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="P125" s="148">
+        <f t="shared" si="11"/>
+        <v>132</v>
       </c>
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
@@ -7410,7 +7733,7 @@
     </row>
     <row r="126" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B126" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="C126" s="17">
@@ -7419,10 +7742,13 @@
       <c r="D126" s="18">
         <v>10</v>
       </c>
-      <c r="E126" s="19"/>
+      <c r="E126" s="19">
+        <f t="shared" si="13"/>
+        <v>2976</v>
+      </c>
       <c r="F126" s="37">
         <f>IF(ISBLANK(E126),0,IF(E126=Answers!E126,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="25" t="s">
         <v>83</v>
@@ -7432,6 +7758,18 @@
       </c>
       <c r="I126" s="25" t="s">
         <v>56</v>
+      </c>
+      <c r="K126" s="148">
+        <f t="shared" si="10"/>
+        <v>3040</v>
+      </c>
+      <c r="N126" s="148" t="str" cm="1">
+        <f t="array" ref="N126">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I126))</f>
+        <v>Raspberries</v>
+      </c>
+      <c r="P126" s="148">
+        <f t="shared" si="11"/>
+        <v>64</v>
       </c>
       <c r="AB126" s="4"/>
       <c r="AC126" s="4"/>
@@ -7457,7 +7795,7 @@
     </row>
     <row r="127" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B127" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="C127" s="17">
@@ -7466,10 +7804,13 @@
       <c r="D127" s="18">
         <v>10</v>
       </c>
-      <c r="E127" s="19"/>
+      <c r="E127" s="19">
+        <f t="shared" si="13"/>
+        <v>2249</v>
+      </c>
       <c r="F127" s="37">
         <f>IF(ISBLANK(E127),0,IF(E127=Answers!E127,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="25" t="s">
         <v>92</v>
@@ -7479,6 +7820,18 @@
       </c>
       <c r="I127" s="25" t="s">
         <v>53</v>
+      </c>
+      <c r="K127" s="148">
+        <f t="shared" si="10"/>
+        <v>2340</v>
+      </c>
+      <c r="N127" s="148" t="str" cm="1">
+        <f t="array" ref="N127">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I127))</f>
+        <v>Bamboo</v>
+      </c>
+      <c r="P127" s="148">
+        <f t="shared" si="11"/>
+        <v>91</v>
       </c>
       <c r="AB127" s="4"/>
       <c r="AC127" s="4"/>
@@ -7504,7 +7857,7 @@
     </row>
     <row r="128" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B128" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>44</v>
       </c>
       <c r="C128" s="17">
@@ -7513,10 +7866,13 @@
       <c r="D128" s="18">
         <v>10</v>
       </c>
-      <c r="E128" s="19"/>
+      <c r="E128" s="19">
+        <f t="shared" si="13"/>
+        <v>4116</v>
+      </c>
       <c r="F128" s="37">
         <f>IF(ISBLANK(E128),0,IF(E128=Answers!E128,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="25" t="s">
         <v>81</v>
@@ -7526,6 +7882,18 @@
       </c>
       <c r="I128" s="25" t="s">
         <v>56</v>
+      </c>
+      <c r="K128" s="148">
+        <f t="shared" si="10"/>
+        <v>4200</v>
+      </c>
+      <c r="N128" s="148" t="str" cm="1">
+        <f t="array" ref="N128">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I128))</f>
+        <v>Raspberries</v>
+      </c>
+      <c r="P128" s="148">
+        <f t="shared" si="11"/>
+        <v>84</v>
       </c>
       <c r="AB128" s="4"/>
       <c r="AC128" s="4"/>
@@ -7551,7 +7919,7 @@
     </row>
     <row r="129" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B129" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="C129" s="17">
@@ -7560,10 +7928,13 @@
       <c r="D129" s="18">
         <v>10</v>
       </c>
-      <c r="E129" s="19"/>
+      <c r="E129" s="19">
+        <f t="shared" si="13"/>
+        <v>2670</v>
+      </c>
       <c r="F129" s="37">
         <f>IF(ISBLANK(E129),0,IF(E129=Answers!E129,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="25" t="s">
         <v>93</v>
@@ -7573,6 +7944,18 @@
       </c>
       <c r="I129" s="25" t="s">
         <v>53</v>
+      </c>
+      <c r="K129" s="148">
+        <f t="shared" si="10"/>
+        <v>2775</v>
+      </c>
+      <c r="N129" s="148" t="str" cm="1">
+        <f t="array" ref="N129">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I129))</f>
+        <v>Bamboo</v>
+      </c>
+      <c r="P129" s="148">
+        <f t="shared" si="11"/>
+        <v>105</v>
       </c>
       <c r="AB129" s="4"/>
       <c r="AC129" s="4"/>
@@ -7598,7 +7981,7 @@
     </row>
     <row r="130" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B130" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>46</v>
       </c>
       <c r="C130" s="17">
@@ -7607,10 +7990,13 @@
       <c r="D130" s="18">
         <v>10</v>
       </c>
-      <c r="E130" s="19"/>
+      <c r="E130" s="19">
+        <f t="shared" si="13"/>
+        <v>752</v>
+      </c>
       <c r="F130" s="37">
         <f>IF(ISBLANK(E130),0,IF(E130=Answers!E130,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" s="25" t="s">
         <v>84</v>
@@ -7620,6 +8006,18 @@
       </c>
       <c r="I130" s="25" t="s">
         <v>53</v>
+      </c>
+      <c r="K130" s="148">
+        <f t="shared" si="10"/>
+        <v>780</v>
+      </c>
+      <c r="N130" s="148" t="str" cm="1">
+        <f t="array" ref="N130">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I130))</f>
+        <v>Bamboo</v>
+      </c>
+      <c r="P130" s="148">
+        <f t="shared" si="11"/>
+        <v>28</v>
       </c>
       <c r="AB130" s="4"/>
       <c r="AC130" s="4"/>
@@ -7645,7 +8043,7 @@
     </row>
     <row r="131" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B131" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>47</v>
       </c>
       <c r="C131" s="17">
@@ -7654,10 +8052,13 @@
       <c r="D131" s="18">
         <v>10</v>
       </c>
-      <c r="E131" s="19"/>
+      <c r="E131" s="19">
+        <f t="shared" si="13"/>
+        <v>865</v>
+      </c>
       <c r="F131" s="37">
         <f>IF(ISBLANK(E131),0,IF(E131=Answers!E131,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" s="25" t="s">
         <v>93</v>
@@ -7667,6 +8068,18 @@
       </c>
       <c r="I131" s="25" t="s">
         <v>50</v>
+      </c>
+      <c r="K131" s="148">
+        <f t="shared" si="10"/>
+        <v>925</v>
+      </c>
+      <c r="N131" s="148" t="str" cm="1">
+        <f t="array" ref="N131">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I131))</f>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="P131" s="148">
+        <f t="shared" si="11"/>
+        <v>60</v>
       </c>
       <c r="AB131" s="4"/>
       <c r="AC131" s="4"/>
@@ -7692,7 +8105,7 @@
     </row>
     <row r="132" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B132" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
       <c r="C132" s="17">
@@ -7701,10 +8114,13 @@
       <c r="D132" s="18">
         <v>10</v>
       </c>
-      <c r="E132" s="19"/>
+      <c r="E132" s="19">
+        <f t="shared" si="13"/>
+        <v>2907</v>
+      </c>
       <c r="F132" s="37">
         <f>IF(ISBLANK(E132),0,IF(E132=Answers!E132,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" s="25" t="s">
         <v>31</v>
@@ -7714,6 +8130,18 @@
       </c>
       <c r="I132" s="25" t="s">
         <v>53</v>
+      </c>
+      <c r="K132" s="148">
+        <f t="shared" si="10"/>
+        <v>3040</v>
+      </c>
+      <c r="N132" s="148" t="str" cm="1">
+        <f t="array" ref="N132">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I132))</f>
+        <v>Bamboo</v>
+      </c>
+      <c r="P132" s="148">
+        <f t="shared" si="11"/>
+        <v>133</v>
       </c>
       <c r="AB132" s="4"/>
       <c r="AC132" s="4"/>
@@ -7739,7 +8167,7 @@
     </row>
     <row r="133" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B133" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="C133" s="17">
@@ -7748,10 +8176,13 @@
       <c r="D133" s="18">
         <v>10</v>
       </c>
-      <c r="E133" s="19"/>
+      <c r="E133" s="19">
+        <f t="shared" si="13"/>
+        <v>1833</v>
+      </c>
       <c r="F133" s="37">
         <f>IF(ISBLANK(E133),0,IF(E133=Answers!E133,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" s="25" t="s">
         <v>34</v>
@@ -7761,6 +8192,18 @@
       </c>
       <c r="I133" s="25" t="s">
         <v>56</v>
+      </c>
+      <c r="K133" s="148">
+        <f t="shared" si="10"/>
+        <v>1885</v>
+      </c>
+      <c r="N133" s="148" t="str" cm="1">
+        <f t="array" ref="N133">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I133))</f>
+        <v>Raspberries</v>
+      </c>
+      <c r="P133" s="148">
+        <f t="shared" si="11"/>
+        <v>52</v>
       </c>
       <c r="AB133" s="4"/>
       <c r="AC133" s="4"/>
@@ -7786,7 +8229,7 @@
     </row>
     <row r="134" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B134" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="C134" s="17">
@@ -7795,10 +8238,13 @@
       <c r="D134" s="18">
         <v>10</v>
       </c>
-      <c r="E134" s="19"/>
+      <c r="E134" s="19">
+        <f>K134-P134</f>
+        <v>2686</v>
+      </c>
       <c r="F134" s="37">
         <f>IF(ISBLANK(E134),0,IF(E134=Answers!E134,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" s="25" t="s">
         <v>37</v>
@@ -7808,6 +8254,18 @@
       </c>
       <c r="I134" s="25" t="s">
         <v>50</v>
+      </c>
+      <c r="K134" s="148">
+        <f t="shared" si="10"/>
+        <v>2890</v>
+      </c>
+      <c r="N134" s="148" t="str" cm="1">
+        <f t="array" ref="N134">_xlfn._xlws.FILTER($F$33:$F$35,--($D$33:$D$35=I134))</f>
+        <v>Eucalyptus</v>
+      </c>
+      <c r="P134" s="148">
+        <f t="shared" si="11"/>
+        <v>204</v>
       </c>
       <c r="AB134" s="4"/>
       <c r="AC134" s="4"/>
@@ -7837,6 +8295,7 @@
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="5"/>
+      <c r="P135" s="148"/>
       <c r="AK135" s="4"/>
       <c r="AL135" s="4"/>
       <c r="AM135" s="4"/>
@@ -7862,11 +8321,11 @@
       </c>
       <c r="E136" s="19">
         <f>SUM(E115:E134)</f>
-        <v>0</v>
+        <v>35532</v>
       </c>
       <c r="F136" s="37">
         <f>IF(ISBLANK(E136),0,IF(E136=Answers!E136,1,-1))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK136" s="4"/>
       <c r="AL136" s="4"/>
@@ -8209,7 +8668,7 @@
     </row>
     <row r="150" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B150" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>52</v>
       </c>
       <c r="C150" s="17">
@@ -8247,7 +8706,7 @@
     </row>
     <row r="151" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B151" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>53</v>
       </c>
       <c r="C151" s="17">
@@ -8285,7 +8744,7 @@
     </row>
     <row r="152" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B152" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>54</v>
       </c>
       <c r="C152" s="17">
@@ -8323,7 +8782,7 @@
     </row>
     <row r="153" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B153" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>55</v>
       </c>
       <c r="C153" s="17">
@@ -8361,7 +8820,7 @@
     </row>
     <row r="154" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B154" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="C154" s="17">
@@ -8399,7 +8858,7 @@
     </row>
     <row r="155" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B155" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>57</v>
       </c>
       <c r="C155" s="17">
@@ -8437,7 +8896,7 @@
     </row>
     <row r="156" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B156" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>58</v>
       </c>
       <c r="C156" s="17">
@@ -8475,7 +8934,7 @@
     </row>
     <row r="157" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B157" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>59</v>
       </c>
       <c r="C157" s="17">
@@ -8513,7 +8972,7 @@
     </row>
     <row r="158" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B158" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="C158" s="17">
@@ -8551,7 +9010,7 @@
     </row>
     <row r="159" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B159" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>61</v>
       </c>
       <c r="C159" s="17">
@@ -8589,7 +9048,7 @@
     </row>
     <row r="160" spans="2:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B160" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
       <c r="C160" s="17">
@@ -8627,7 +9086,7 @@
     </row>
     <row r="161" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B161" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>63</v>
       </c>
       <c r="C161" s="17">
@@ -8665,7 +9124,7 @@
     </row>
     <row r="162" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B162" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
       <c r="C162" s="17">
@@ -8703,7 +9162,7 @@
     </row>
     <row r="163" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B163" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>65</v>
       </c>
       <c r="C163" s="17">
@@ -8741,7 +9200,7 @@
     </row>
     <row r="164" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B164" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>66</v>
       </c>
       <c r="C164" s="17">
@@ -8779,7 +9238,7 @@
     </row>
     <row r="165" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="B165" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>67</v>
       </c>
       <c r="C165" s="17">
@@ -8817,7 +9276,7 @@
     </row>
     <row r="166" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B166" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>68</v>
       </c>
       <c r="C166" s="17">
@@ -8855,7 +9314,7 @@
     </row>
     <row r="167" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B167" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>69</v>
       </c>
       <c r="C167" s="17">
@@ -8893,7 +9352,7 @@
     </row>
     <row r="168" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B168" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
       <c r="C168" s="17">
@@ -9751,7 +10210,7 @@
     </row>
     <row r="185" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B185" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="C185" s="17">
@@ -9812,7 +10271,7 @@
     </row>
     <row r="186" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B186" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>73</v>
       </c>
       <c r="C186" s="17">
@@ -9873,7 +10332,7 @@
     </row>
     <row r="187" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B187" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>74</v>
       </c>
       <c r="C187" s="17">
@@ -9934,7 +10393,7 @@
     </row>
     <row r="188" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B188" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="C188" s="17">
@@ -9995,7 +10454,7 @@
     </row>
     <row r="189" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B189" s="17">
-        <f t="shared" ref="B189:B213" si="11">B188+1</f>
+        <f t="shared" ref="B189:B213" si="15">B188+1</f>
         <v>76</v>
       </c>
       <c r="C189" s="17">
@@ -10056,7 +10515,7 @@
     </row>
     <row r="190" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B190" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>77</v>
       </c>
       <c r="C190" s="17">
@@ -10117,7 +10576,7 @@
     </row>
     <row r="191" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B191" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>78</v>
       </c>
       <c r="C191" s="17">
@@ -10178,7 +10637,7 @@
     </row>
     <row r="192" spans="1:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B192" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>79</v>
       </c>
       <c r="C192" s="17">
@@ -10239,7 +10698,7 @@
     </row>
     <row r="193" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B193" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="C193" s="17">
@@ -10300,7 +10759,7 @@
     </row>
     <row r="194" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B194" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>81</v>
       </c>
       <c r="C194" s="17">
@@ -10361,7 +10820,7 @@
     </row>
     <row r="195" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B195" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>82</v>
       </c>
       <c r="C195" s="17">
@@ -10422,7 +10881,7 @@
     </row>
     <row r="196" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B196" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>83</v>
       </c>
       <c r="C196" s="17">
@@ -10483,7 +10942,7 @@
     </row>
     <row r="197" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B197" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>84</v>
       </c>
       <c r="C197" s="17">
@@ -10544,7 +11003,7 @@
     </row>
     <row r="198" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B198" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>85</v>
       </c>
       <c r="C198" s="17">
@@ -10605,7 +11064,7 @@
     </row>
     <row r="199" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B199" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>86</v>
       </c>
       <c r="C199" s="17">
@@ -10666,7 +11125,7 @@
     </row>
     <row r="200" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B200" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>87</v>
       </c>
       <c r="C200" s="17">
@@ -10727,7 +11186,7 @@
     </row>
     <row r="201" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B201" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>88</v>
       </c>
       <c r="C201" s="17">
@@ -10788,7 +11247,7 @@
     </row>
     <row r="202" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B202" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>89</v>
       </c>
       <c r="C202" s="17">
@@ -10849,7 +11308,7 @@
     </row>
     <row r="203" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B203" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="C203" s="17">
@@ -10910,7 +11369,7 @@
     </row>
     <row r="204" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B204" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>91</v>
       </c>
       <c r="C204" s="17">
@@ -10971,7 +11430,7 @@
     </row>
     <row r="205" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B205" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>92</v>
       </c>
       <c r="C205" s="17">
@@ -11032,7 +11491,7 @@
     </row>
     <row r="206" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B206" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>93</v>
       </c>
       <c r="C206" s="17">
@@ -11093,7 +11552,7 @@
     </row>
     <row r="207" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B207" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>94</v>
       </c>
       <c r="C207" s="17">
@@ -11154,7 +11613,7 @@
     </row>
     <row r="208" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B208" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>95</v>
       </c>
       <c r="C208" s="17">
@@ -11215,7 +11674,7 @@
     </row>
     <row r="209" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B209" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>96</v>
       </c>
       <c r="C209" s="17">
@@ -11276,7 +11735,7 @@
     </row>
     <row r="210" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B210" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>97</v>
       </c>
       <c r="C210" s="17">
@@ -11337,7 +11796,7 @@
     </row>
     <row r="211" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B211" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>98</v>
       </c>
       <c r="C211" s="17">
@@ -11398,7 +11857,7 @@
     </row>
     <row r="212" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B212" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>99</v>
       </c>
       <c r="C212" s="17">
@@ -11459,7 +11918,7 @@
     </row>
     <row r="213" spans="2:48" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B213" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="C213" s="17">
@@ -12007,19 +12466,19 @@
       <c r="AV1" s="4"/>
     </row>
     <row r="2" spans="2:48" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
       <c r="N2" s="44" t="s">
         <v>1</v>
       </c>
@@ -12118,19 +12577,19 @@
       <c r="AV8" s="4"/>
     </row>
     <row r="9" spans="2:48" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="138"/>
-      <c r="K9" s="145" t="s">
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="139"/>
+      <c r="K9" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="145"/>
+      <c r="L9" s="146"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
@@ -12156,15 +12615,15 @@
       <c r="AV9" s="4"/>
     </row>
     <row r="10" spans="2:48" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="130"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
@@ -12191,13 +12650,13 @@
       <c r="AV10" s="4"/>
     </row>
     <row r="11" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="130"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="132"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="133"/>
       <c r="K11" s="90" t="s">
         <v>6</v>
       </c>
@@ -12231,13 +12690,13 @@
       <c r="AV11" s="4"/>
     </row>
     <row r="12" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="132"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="133"/>
       <c r="K12" s="79" t="s">
         <v>7</v>
       </c>
@@ -12261,13 +12720,13 @@
       <c r="AV12" s="4"/>
     </row>
     <row r="13" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="132"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="133"/>
       <c r="K13" s="58" t="s">
         <v>8</v>
       </c>
@@ -12301,13 +12760,13 @@
       <c r="AV13" s="4"/>
     </row>
     <row r="14" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="132"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="133"/>
       <c r="K14" s="58" t="s">
         <v>9</v>
       </c>
@@ -12341,13 +12800,13 @@
       <c r="AV14" s="4"/>
     </row>
     <row r="15" spans="2:48" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="132"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="133"/>
       <c r="K15" s="58" t="s">
         <v>10</v>
       </c>
@@ -12374,13 +12833,13 @@
       <c r="AV15" s="4"/>
     </row>
     <row r="16" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="130"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="132"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="133"/>
       <c r="K16" s="58" t="s">
         <v>11</v>
       </c>
@@ -12407,13 +12866,13 @@
       <c r="AV16" s="4"/>
     </row>
     <row r="17" spans="2:48" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="132"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="133"/>
       <c r="K17" s="58" t="s">
         <v>12</v>
       </c>
@@ -12440,13 +12899,13 @@
       <c r="AV17" s="4"/>
     </row>
     <row r="18" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="133"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
       <c r="K18" s="58" t="s">
         <v>13</v>
       </c>
@@ -12495,15 +12954,15 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="2:48" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" s="58" t="s">
@@ -12792,15 +13251,15 @@
       <c r="AV29" s="4"/>
     </row>
     <row r="30" spans="2:48" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="126" t="s">
+      <c r="B30" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
       <c r="K30" s="58" t="s">
@@ -13074,14 +13533,14 @@
       <c r="E41" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="123" t="s">
+      <c r="G41" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="126"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
@@ -13116,14 +13575,14 @@
         <v>15</v>
       </c>
       <c r="F42" s="37"/>
-      <c r="G42" s="139" t="s">
+      <c r="G42" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="142"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
@@ -13158,14 +13617,14 @@
         <v>12</v>
       </c>
       <c r="F43" s="37"/>
-      <c r="G43" s="142" t="s">
+      <c r="G43" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143"/>
-      <c r="L43" s="144"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="144"/>
+      <c r="L43" s="145"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
@@ -13200,14 +13659,14 @@
         <v>31</v>
       </c>
       <c r="F44" s="37"/>
-      <c r="G44" s="120" t="s">
+      <c r="G44" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="123"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
